--- a/Controle de Ponto_compatível.xlsx
+++ b/Controle de Ponto_compatível.xlsx
@@ -5,7 +5,7 @@
   <workbookPr date1904="1" codeName="EstaPasta_de_trabalho" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m362168\Dropbox\Projetos\Budhi\Excel\Controle_Ponto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\Controle de Ponto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -956,9 +956,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="167" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -966,6 +963,225 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -992,14 +1208,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1015,248 +1223,40 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1672,289 +1672,289 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="7" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="74" t="s">
+      <c r="E2" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="75" t="s">
+      <c r="F2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="74" t="s">
+      <c r="H2" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="75" t="s">
+      <c r="J2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="55" t="s">
+      <c r="L2" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86" t="s">
+      <c r="E3" s="65"/>
+      <c r="F3" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="100" t="str">
+      <c r="H3" s="80" t="str">
         <f>Tabelas!$I3&amp;"h diárias"</f>
         <v>2h diárias</v>
       </c>
-      <c r="I3" s="96">
+      <c r="I3" s="76">
         <v>2</v>
       </c>
-      <c r="J3" s="97">
+      <c r="J3" s="77">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="L3" s="77" t="s">
+      <c r="L3" s="57" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="88"/>
-      <c r="F4" s="89" t="s">
+      <c r="E4" s="68"/>
+      <c r="F4" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="98" t="s">
+      <c r="H4" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="98">
+      <c r="I4" s="78">
         <v>9999</v>
       </c>
-      <c r="J4" s="99">
-        <v>0</v>
-      </c>
-      <c r="L4" s="78" t="s">
+      <c r="J4" s="79">
+        <v>0</v>
+      </c>
+      <c r="L4" s="58" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="91" t="s">
+      <c r="D5" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="91"/>
-      <c r="F5" s="92" t="s">
+      <c r="E5" s="71"/>
+      <c r="F5" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="79" t="s">
+      <c r="L5" s="59" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="D6" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="88"/>
-      <c r="F6" s="89" t="s">
+      <c r="E6" s="68"/>
+      <c r="F6" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="L6" s="78" t="s">
+      <c r="L6" s="58" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="D7" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="91"/>
-      <c r="F7" s="92" t="s">
+      <c r="E7" s="71"/>
+      <c r="F7" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="79" t="s">
+      <c r="L7" s="59" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="88" t="s">
+      <c r="B8" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="88" t="s">
+      <c r="D8" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="88"/>
-      <c r="F8" s="89" t="s">
+      <c r="E8" s="68"/>
+      <c r="F8" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="78" t="s">
+      <c r="L8" s="58" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="91" t="s">
+      <c r="C9" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91" t="s">
+      <c r="D9" s="71"/>
+      <c r="E9" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="92" t="s">
+      <c r="F9" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="L9" s="79" t="s">
+      <c r="L9" s="59" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="87" t="s">
+      <c r="A10" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="88" t="s">
+      <c r="C10" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88" t="s">
+      <c r="D10" s="68"/>
+      <c r="E10" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="89" t="s">
+      <c r="F10" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="78" t="s">
+      <c r="L10" s="58" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="91" t="s">
+      <c r="D11" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="91"/>
-      <c r="F11" s="92" t="s">
+      <c r="E11" s="71"/>
+      <c r="F11" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="79" t="s">
+      <c r="L11" s="59" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="88" t="s">
+      <c r="C12" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="88" t="s">
+      <c r="D12" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="88"/>
-      <c r="F12" s="89" t="s">
+      <c r="E12" s="68"/>
+      <c r="F12" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="78" t="s">
+      <c r="L12" s="58" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="94" t="s">
+      <c r="C13" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="94" t="s">
+      <c r="D13" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="94"/>
-      <c r="F13" s="95" t="s">
+      <c r="E13" s="74"/>
+      <c r="F13" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="L13" s="79" t="s">
+      <c r="L13" s="59" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L14" s="76" t="s">
+      <c r="L14" s="56" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1993,11 +1993,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="98"/>
     </row>
     <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
@@ -2030,110 +2030,110 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="101"/>
     </row>
     <row r="10" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="35" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="101" t="s">
+      <c r="D11" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="102"/>
+      <c r="E11" s="82"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="103" t="s">
+      <c r="D12" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="104"/>
+      <c r="E12" s="84"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="82" t="s">
+      <c r="C13" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="105" t="s">
+      <c r="D13" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="106"/>
+      <c r="E13" s="86"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="C14" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="103" t="s">
+      <c r="D14" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="104"/>
+      <c r="E14" s="84"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="82" t="s">
+      <c r="C15" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="105" t="s">
+      <c r="D15" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="106"/>
+      <c r="E15" s="86"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="81" t="s">
+      <c r="C16" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="103" t="s">
+      <c r="D16" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="104"/>
+      <c r="E16" s="84"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="83" t="s">
+      <c r="C17" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="107" t="s">
+      <c r="D17" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="108"/>
+      <c r="E17" s="88"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="CCkXtyAA95Bj3HzKEfnWEcOU17uAOb3YGn7V1q81huH79ccIvVBG8p4ofF4D2Iwyp16jh/pPEOAaf43dwpfegg==" saltValue="PiEVSnij6YXzmxjxh/N0yQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0" pivotTables="0"/>
@@ -2199,7 +2199,7 @@
       <c r="G1" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="41" t="str">
+      <c r="O1" s="104" t="str">
         <f>"*Limite de horas: " &amp; LIMITE &amp; "; e 
 *Contabiliza a partir de " &amp; TEXT(CARENCIA, "hh:mm") &amp; " hora(s) (para mais ou para menos);
 *Caso tenha Atestado em um dos períodos, o que ultrapassar de 4:00 horas de trabalho contabiliza hora positiva."</f>
@@ -2207,60 +2207,60 @@
 *Contabiliza a partir de 00:10 hora(s) (para mais ou para menos);
 *Caso tenha Atestado em um dos períodos, o que ultrapassar de 4:00 horas de trabalho contabiliza hora positiva.</v>
       </c>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
     </row>
     <row r="2" spans="2:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
       <c r="N2" s="14"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="104"/>
     </row>
     <row r="3" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="G3" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="I3" s="51"/>
+      <c r="I3" s="110"/>
       <c r="N3" s="14"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
     </row>
     <row r="4" spans="2:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="43"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="115"/>
       <c r="N4" s="14"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
     </row>
     <row r="5" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="45"/>
+      <c r="C5" s="106"/>
       <c r="D5" s="18" t="s">
         <v>62</v>
       </c>
@@ -2285,8 +2285,8 @@
       <c r="T5" s="14"/>
     </row>
     <row r="6" spans="2:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="108"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="20" t="str">
@@ -2295,12 +2295,12 @@
       </c>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
-      <c r="P6" s="39" t="s">
+      <c r="P6" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="103"/>
+      <c r="S6" s="103"/>
       <c r="T6" s="14"/>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
@@ -2325,100 +2325,100 @@
         <v>76</v>
       </c>
       <c r="O7" s="14"/>
-      <c r="P7" s="30">
+      <c r="P7" s="29">
         <f>SUM('Cálculo de Horas'!$P$9:$P$39)</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="31">
+      <c r="Q7" s="30">
         <f>SUM('Cálculo de Horas'!$Q$9:$Q$39)</f>
         <v>0</v>
       </c>
-      <c r="R7" s="30">
+      <c r="R7" s="29">
         <f>SUM('Cálculo de Horas'!$R$9:$R$39)</f>
         <v>0</v>
       </c>
-      <c r="S7" s="30">
+      <c r="S7" s="29">
         <f>SUM('Cálculo de Horas'!$S$9:$S$39)</f>
         <v>0</v>
       </c>
       <c r="T7" s="14"/>
     </row>
     <row r="8" spans="2:25" s="7" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="53" t="s">
+      <c r="B8" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="G8" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="53" t="s">
+      <c r="H8" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="54" t="s">
+      <c r="I8" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="53" t="s">
+      <c r="J8" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="53" t="s">
+      <c r="K8" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="53" t="s">
+      <c r="L8" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="M8" s="53" t="s">
+      <c r="M8" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="N8" s="53" t="s">
+      <c r="N8" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="53" t="s">
+      <c r="O8" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="P8" s="53" t="s">
+      <c r="P8" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="Q8" s="53" t="s">
+      <c r="Q8" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="R8" s="53" t="s">
+      <c r="R8" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="S8" s="53" t="s">
+      <c r="S8" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="T8" s="55" t="s">
+      <c r="T8" s="35" t="s">
         <v>46</v>
       </c>
       <c r="W8" s="15"/>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B9" s="56" t="str">
+      <c r="B9" s="36" t="str">
         <f>IF(ISERROR(F6),"",F6)</f>
         <v/>
       </c>
-      <c r="C9" s="57" t="str">
+      <c r="C9" s="37" t="str">
         <f>TEXT('Cálculo de Horas'!$B$9:$B$39,"ddd")</f>
         <v/>
       </c>
-      <c r="D9" s="109"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="58">
+      <c r="D9" s="89"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="38">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$F$9:$F$39),ISNUMBER('Cálculo de Horas'!$E$9:$E$39)),
@@ -2430,7 +2430,7 @@
                     0)),0)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="58">
+      <c r="K9" s="38">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$H$9:$H$39),ISNUMBER('Cálculo de Horas'!$G$9:$G$39)),
@@ -2442,11 +2442,11 @@
        0)),0)</f>
         <v>0</v>
       </c>
-      <c r="L9" s="58">
+      <c r="L9" s="38">
         <f>'Cálculo de Horas'!$J$9:$J$39+'Cálculo de Horas'!$K$9:$K$39</f>
         <v>0</v>
       </c>
-      <c r="M9" s="58" t="str">
+      <c r="M9" s="38" t="str">
         <f>IF('Cálculo de Horas'!$B$9:$B$39&lt;&gt;"",
         IF(
 AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
@@ -2455,7 +2455,7 @@
          "")</f>
         <v/>
       </c>
-      <c r="N9" s="59">
+      <c r="N9" s="39">
         <f>IF(OR('Cálculo de Horas'!$J$9:$J$39&lt;&gt;0,'Cálculo de Horas'!$K$9:$K$39&lt;&gt;0),
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF('Cálculo de Horas'!$M$9:$M$39&gt;('Cálculo de Horas'!$K$9:$K$39+'Cálculo de Horas'!$J$9:$J$39),
@@ -2471,7 +2471,7 @@
 )))</f>
         <v>0</v>
       </c>
-      <c r="O9" s="59">
+      <c r="O9" s="39">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF(HOUR('Cálculo de Horas'!$N$9:$N$39)&gt;=VLOOKUP(LIMITE,Tabelas!$H$3:$J$4,Tabelas!$I$1,FALSE),
@@ -2481,27 +2481,27 @@
         'Cálculo de Horas'!$N$9:$N$39)</f>
         <v>0</v>
       </c>
-      <c r="P9" s="59" t="str">
+      <c r="P9" s="39" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&lt;0,IF(OR('Cálculo de Horas'!$D$9:$D$39="",'Cálculo de Horas'!$I$9:$I$39=""),'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="Q9" s="59" t="str">
+      <c r="Q9" s="39" t="str">
         <f>IF('Cálculo de Horas'!$M$9:$M$39&lt;&gt;"",IF((N('Cálculo de Horas'!$M$9:$M$39)-ABS(N('Cálculo de Horas'!$N$9:$N$39)))=0,1,""),"")</f>
         <v/>
       </c>
-      <c r="R9" s="59" t="str">
+      <c r="R9" s="39" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="S9" s="59" t="str">
+      <c r="S9" s="39" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(OR(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Não",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="T9" s="60" t="str">
+      <c r="T9" s="40" t="str">
         <f>IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;""," - " &amp;VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")&amp;IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",'Cálculo de Horas'!$I$9:$I$39&lt;&gt;'Cálculo de Horas'!$D$9:$D$39)," - " &amp; VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")</f>
         <v/>
       </c>
@@ -2509,21 +2509,21 @@
       <c r="Y9" s="9"/>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B10" s="61" t="str">
+      <c r="B10" s="41" t="str">
         <f>IF(B9&lt;&gt;"",IF(DAY(B9+1)=IF($E$6&lt;&gt;"",$E$6,1),"",B9+1),"")</f>
         <v/>
       </c>
-      <c r="C10" s="62" t="str">
+      <c r="C10" s="42" t="str">
         <f>TEXT('Cálculo de Horas'!$B$9:$B$39,"ddd")</f>
         <v/>
       </c>
-      <c r="D10" s="112"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="63">
+      <c r="D10" s="91"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$F$9:$F$39),ISNUMBER('Cálculo de Horas'!$E$9:$E$39)),
@@ -2535,7 +2535,7 @@
                     0)),0)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="63">
+      <c r="K10" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$H$9:$H$39),ISNUMBER('Cálculo de Horas'!$G$9:$G$39)),
@@ -2547,11 +2547,11 @@
        0)),0)</f>
         <v>0</v>
       </c>
-      <c r="L10" s="63">
+      <c r="L10" s="43">
         <f>'Cálculo de Horas'!$J$9:$J$39+'Cálculo de Horas'!$K$9:$K$39</f>
         <v>0</v>
       </c>
-      <c r="M10" s="63" t="str">
+      <c r="M10" s="43" t="str">
         <f>IF('Cálculo de Horas'!$B$9:$B$39&lt;&gt;"",
         IF(
 AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
@@ -2560,7 +2560,7 @@
          "")</f>
         <v/>
       </c>
-      <c r="N10" s="64">
+      <c r="N10" s="44">
         <f>IF(OR('Cálculo de Horas'!$J$9:$J$39&lt;&gt;0,'Cálculo de Horas'!$K$9:$K$39&lt;&gt;0),
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF('Cálculo de Horas'!$M$9:$M$39&gt;('Cálculo de Horas'!$K$9:$K$39+'Cálculo de Horas'!$J$9:$J$39),
@@ -2576,7 +2576,7 @@
 )))</f>
         <v>0</v>
       </c>
-      <c r="O10" s="64">
+      <c r="O10" s="44">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF(HOUR('Cálculo de Horas'!$N$9:$N$39)&gt;=VLOOKUP(LIMITE,Tabelas!$H$3:$J$4,Tabelas!$I$1,FALSE),
@@ -2586,48 +2586,48 @@
         'Cálculo de Horas'!$N$9:$N$39)+O9</f>
         <v>0</v>
       </c>
-      <c r="P10" s="64" t="str">
+      <c r="P10" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&lt;0,IF(OR('Cálculo de Horas'!$D$9:$D$39="",'Cálculo de Horas'!$I$9:$I$39=""),'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="Q10" s="64" t="str">
+      <c r="Q10" s="44" t="str">
         <f>IF('Cálculo de Horas'!$M$9:$M$39&lt;&gt;"",IF((N('Cálculo de Horas'!$M$9:$M$39)-ABS(N('Cálculo de Horas'!$N$9:$N$39)))=0,1,""),"")</f>
         <v/>
       </c>
-      <c r="R10" s="64" t="str">
+      <c r="R10" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="S10" s="64" t="str">
+      <c r="S10" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(OR(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Não",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="T10" s="65" t="str">
+      <c r="T10" s="45" t="str">
         <f>IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;""," - " &amp;VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")&amp;IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",'Cálculo de Horas'!$I$9:$I$39&lt;&gt;'Cálculo de Horas'!$D$9:$D$39)," - " &amp; VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y10" s="9"/>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="66" t="str">
+      <c r="B11" s="46" t="str">
         <f t="shared" ref="B11:B39" si="0">IF(B10&lt;&gt;"",IF(DAY(B10+1)=IF($E$6&lt;&gt;"",$E$6,1),"",B10+1),"")</f>
         <v/>
       </c>
-      <c r="C11" s="67" t="str">
+      <c r="C11" s="47" t="str">
         <f>TEXT('Cálculo de Horas'!$B$9:$B$39,"ddd")</f>
         <v/>
       </c>
-      <c r="D11" s="112"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="63">
+      <c r="D11" s="91"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$F$9:$F$39),ISNUMBER('Cálculo de Horas'!$E$9:$E$39)),
@@ -2639,7 +2639,7 @@
                     0)),0)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="63">
+      <c r="K11" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$H$9:$H$39),ISNUMBER('Cálculo de Horas'!$G$9:$G$39)),
@@ -2651,11 +2651,11 @@
        0)),0)</f>
         <v>0</v>
       </c>
-      <c r="L11" s="63">
+      <c r="L11" s="43">
         <f>'Cálculo de Horas'!$J$9:$J$39+'Cálculo de Horas'!$K$9:$K$39</f>
         <v>0</v>
       </c>
-      <c r="M11" s="63" t="str">
+      <c r="M11" s="43" t="str">
         <f>IF('Cálculo de Horas'!$B$9:$B$39&lt;&gt;"",
         IF(
 AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
@@ -2664,7 +2664,7 @@
          "")</f>
         <v/>
       </c>
-      <c r="N11" s="68">
+      <c r="N11" s="48">
         <f>IF(OR('Cálculo de Horas'!$J$9:$J$39&lt;&gt;0,'Cálculo de Horas'!$K$9:$K$39&lt;&gt;0),
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF('Cálculo de Horas'!$M$9:$M$39&gt;('Cálculo de Horas'!$K$9:$K$39+'Cálculo de Horas'!$J$9:$J$39),
@@ -2680,7 +2680,7 @@
 )))</f>
         <v>0</v>
       </c>
-      <c r="O11" s="68">
+      <c r="O11" s="48">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF(HOUR('Cálculo de Horas'!$N$9:$N$39)&gt;=VLOOKUP(LIMITE,Tabelas!$H$3:$J$4,Tabelas!$I$1,FALSE),
@@ -2690,47 +2690,47 @@
         'Cálculo de Horas'!$N$9:$N$39)+O10</f>
         <v>0</v>
       </c>
-      <c r="P11" s="68" t="str">
+      <c r="P11" s="48" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&lt;0,IF(OR('Cálculo de Horas'!$D$9:$D$39="",'Cálculo de Horas'!$I$9:$I$39=""),'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="Q11" s="68" t="str">
+      <c r="Q11" s="48" t="str">
         <f>IF('Cálculo de Horas'!$M$9:$M$39&lt;&gt;"",IF((N('Cálculo de Horas'!$M$9:$M$39)-ABS(N('Cálculo de Horas'!$N$9:$N$39)))=0,1,""),"")</f>
         <v/>
       </c>
-      <c r="R11" s="68" t="str">
+      <c r="R11" s="48" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="S11" s="68" t="str">
+      <c r="S11" s="48" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(OR(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Não",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="T11" s="69" t="str">
+      <c r="T11" s="49" t="str">
         <f>IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;""," - " &amp;VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")&amp;IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",'Cálculo de Horas'!$I$9:$I$39&lt;&gt;'Cálculo de Horas'!$D$9:$D$39)," - " &amp; VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B12" s="61" t="str">
+      <c r="B12" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C12" s="62" t="str">
+      <c r="C12" s="42" t="str">
         <f>TEXT('Cálculo de Horas'!$B$9:$B$39,"ddd")</f>
         <v/>
       </c>
-      <c r="D12" s="112"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="63">
+      <c r="D12" s="91"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$F$9:$F$39),ISNUMBER('Cálculo de Horas'!$E$9:$E$39)),
@@ -2742,7 +2742,7 @@
                     0)),0)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="63">
+      <c r="K12" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$H$9:$H$39),ISNUMBER('Cálculo de Horas'!$G$9:$G$39)),
@@ -2754,11 +2754,11 @@
        0)),0)</f>
         <v>0</v>
       </c>
-      <c r="L12" s="63">
+      <c r="L12" s="43">
         <f>'Cálculo de Horas'!$J$9:$J$39+'Cálculo de Horas'!$K$9:$K$39</f>
         <v>0</v>
       </c>
-      <c r="M12" s="63" t="str">
+      <c r="M12" s="43" t="str">
         <f>IF('Cálculo de Horas'!$B$9:$B$39&lt;&gt;"",
         IF(
 AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
@@ -2767,7 +2767,7 @@
          "")</f>
         <v/>
       </c>
-      <c r="N12" s="64">
+      <c r="N12" s="44">
         <f>IF(OR('Cálculo de Horas'!$J$9:$J$39&lt;&gt;0,'Cálculo de Horas'!$K$9:$K$39&lt;&gt;0),
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF('Cálculo de Horas'!$M$9:$M$39&gt;('Cálculo de Horas'!$K$9:$K$39+'Cálculo de Horas'!$J$9:$J$39),
@@ -2783,7 +2783,7 @@
 )))</f>
         <v>0</v>
       </c>
-      <c r="O12" s="64">
+      <c r="O12" s="44">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF(HOUR('Cálculo de Horas'!$N$9:$N$39)&gt;=VLOOKUP(LIMITE,Tabelas!$H$3:$J$4,Tabelas!$I$1,FALSE),
@@ -2793,47 +2793,47 @@
         'Cálculo de Horas'!$N$9:$N$39)+O11</f>
         <v>0</v>
       </c>
-      <c r="P12" s="64" t="str">
+      <c r="P12" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&lt;0,IF(OR('Cálculo de Horas'!$D$9:$D$39="",'Cálculo de Horas'!$I$9:$I$39=""),'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="Q12" s="64" t="str">
+      <c r="Q12" s="44" t="str">
         <f>IF('Cálculo de Horas'!$M$9:$M$39&lt;&gt;"",IF((N('Cálculo de Horas'!$M$9:$M$39)-ABS(N('Cálculo de Horas'!$N$9:$N$39)))=0,1,""),"")</f>
         <v/>
       </c>
-      <c r="R12" s="64" t="str">
+      <c r="R12" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="S12" s="64" t="str">
+      <c r="S12" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(OR(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Não",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="T12" s="65" t="str">
+      <c r="T12" s="45" t="str">
         <f>IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;""," - " &amp;VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")&amp;IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",'Cálculo de Horas'!$I$9:$I$39&lt;&gt;'Cálculo de Horas'!$D$9:$D$39)," - " &amp; VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B13" s="66" t="str">
+      <c r="B13" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C13" s="67" t="str">
+      <c r="C13" s="47" t="str">
         <f>TEXT('Cálculo de Horas'!$B$9:$B$39,"ddd")</f>
         <v/>
       </c>
-      <c r="D13" s="112"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="63">
+      <c r="D13" s="91"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$F$9:$F$39),ISNUMBER('Cálculo de Horas'!$E$9:$E$39)),
@@ -2845,7 +2845,7 @@
                     0)),0)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="63">
+      <c r="K13" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$H$9:$H$39),ISNUMBER('Cálculo de Horas'!$G$9:$G$39)),
@@ -2857,11 +2857,11 @@
        0)),0)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="63">
+      <c r="L13" s="43">
         <f>'Cálculo de Horas'!$J$9:$J$39+'Cálculo de Horas'!$K$9:$K$39</f>
         <v>0</v>
       </c>
-      <c r="M13" s="63" t="str">
+      <c r="M13" s="43" t="str">
         <f>IF('Cálculo de Horas'!$B$9:$B$39&lt;&gt;"",
         IF(
 AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
@@ -2870,7 +2870,7 @@
          "")</f>
         <v/>
       </c>
-      <c r="N13" s="68">
+      <c r="N13" s="48">
         <f>IF(OR('Cálculo de Horas'!$J$9:$J$39&lt;&gt;0,'Cálculo de Horas'!$K$9:$K$39&lt;&gt;0),
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF('Cálculo de Horas'!$M$9:$M$39&gt;('Cálculo de Horas'!$K$9:$K$39+'Cálculo de Horas'!$J$9:$J$39),
@@ -2886,7 +2886,7 @@
 )))</f>
         <v>0</v>
       </c>
-      <c r="O13" s="68">
+      <c r="O13" s="48">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF(HOUR('Cálculo de Horas'!$N$9:$N$39)&gt;=VLOOKUP(LIMITE,Tabelas!$H$3:$J$4,Tabelas!$I$1,FALSE),
@@ -2896,47 +2896,47 @@
         'Cálculo de Horas'!$N$9:$N$39)+O12</f>
         <v>0</v>
       </c>
-      <c r="P13" s="68" t="str">
+      <c r="P13" s="48" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&lt;0,IF(OR('Cálculo de Horas'!$D$9:$D$39="",'Cálculo de Horas'!$I$9:$I$39=""),'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="Q13" s="68" t="str">
+      <c r="Q13" s="48" t="str">
         <f>IF('Cálculo de Horas'!$M$9:$M$39&lt;&gt;"",IF((N('Cálculo de Horas'!$M$9:$M$39)-ABS(N('Cálculo de Horas'!$N$9:$N$39)))=0,1,""),"")</f>
         <v/>
       </c>
-      <c r="R13" s="68" t="str">
+      <c r="R13" s="48" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="S13" s="68" t="str">
+      <c r="S13" s="48" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(OR(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Não",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="T13" s="69" t="str">
+      <c r="T13" s="49" t="str">
         <f>IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;""," - " &amp;VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")&amp;IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",'Cálculo de Horas'!$I$9:$I$39&lt;&gt;'Cálculo de Horas'!$D$9:$D$39)," - " &amp; VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B14" s="61" t="str">
+      <c r="B14" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C14" s="62" t="str">
+      <c r="C14" s="42" t="str">
         <f>TEXT('Cálculo de Horas'!$B$9:$B$39,"ddd")</f>
         <v/>
       </c>
-      <c r="D14" s="112"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="63">
+      <c r="D14" s="91"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$F$9:$F$39),ISNUMBER('Cálculo de Horas'!$E$9:$E$39)),
@@ -2948,7 +2948,7 @@
                     0)),0)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="63">
+      <c r="K14" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$H$9:$H$39),ISNUMBER('Cálculo de Horas'!$G$9:$G$39)),
@@ -2960,11 +2960,11 @@
        0)),0)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="63">
+      <c r="L14" s="43">
         <f>'Cálculo de Horas'!$J$9:$J$39+'Cálculo de Horas'!$K$9:$K$39</f>
         <v>0</v>
       </c>
-      <c r="M14" s="63" t="str">
+      <c r="M14" s="43" t="str">
         <f>IF('Cálculo de Horas'!$B$9:$B$39&lt;&gt;"",
         IF(
 AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
@@ -2973,7 +2973,7 @@
          "")</f>
         <v/>
       </c>
-      <c r="N14" s="64">
+      <c r="N14" s="44">
         <f>IF(OR('Cálculo de Horas'!$J$9:$J$39&lt;&gt;0,'Cálculo de Horas'!$K$9:$K$39&lt;&gt;0),
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF('Cálculo de Horas'!$M$9:$M$39&gt;('Cálculo de Horas'!$K$9:$K$39+'Cálculo de Horas'!$J$9:$J$39),
@@ -2989,7 +2989,7 @@
 )))</f>
         <v>0</v>
       </c>
-      <c r="O14" s="64">
+      <c r="O14" s="44">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF(HOUR('Cálculo de Horas'!$N$9:$N$39)&gt;=VLOOKUP(LIMITE,Tabelas!$H$3:$J$4,Tabelas!$I$1,FALSE),
@@ -2999,27 +2999,27 @@
         'Cálculo de Horas'!$N$9:$N$39)+O13</f>
         <v>0</v>
       </c>
-      <c r="P14" s="64" t="str">
+      <c r="P14" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&lt;0,IF(OR('Cálculo de Horas'!$D$9:$D$39="",'Cálculo de Horas'!$I$9:$I$39=""),'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="Q14" s="64" t="str">
+      <c r="Q14" s="44" t="str">
         <f>IF('Cálculo de Horas'!$M$9:$M$39&lt;&gt;"",IF((N('Cálculo de Horas'!$M$9:$M$39)-ABS(N('Cálculo de Horas'!$N$9:$N$39)))=0,1,""),"")</f>
         <v/>
       </c>
-      <c r="R14" s="64" t="str">
+      <c r="R14" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="S14" s="64" t="str">
+      <c r="S14" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(OR(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Não",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="T14" s="65" t="str">
+      <c r="T14" s="45" t="str">
         <f>IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;""," - " &amp;VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")&amp;IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",'Cálculo de Horas'!$I$9:$I$39&lt;&gt;'Cálculo de Horas'!$D$9:$D$39)," - " &amp; VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")</f>
         <v/>
       </c>
@@ -3027,21 +3027,21 @@
       <c r="Y14" s="10"/>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B15" s="66" t="str">
+      <c r="B15" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C15" s="67" t="str">
+      <c r="C15" s="47" t="str">
         <f>TEXT('Cálculo de Horas'!$B$9:$B$39,"ddd")</f>
         <v/>
       </c>
-      <c r="D15" s="112"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="63">
+      <c r="D15" s="91"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$F$9:$F$39),ISNUMBER('Cálculo de Horas'!$E$9:$E$39)),
@@ -3053,7 +3053,7 @@
                     0)),0)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="63">
+      <c r="K15" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$H$9:$H$39),ISNUMBER('Cálculo de Horas'!$G$9:$G$39)),
@@ -3065,11 +3065,11 @@
        0)),0)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="63">
+      <c r="L15" s="43">
         <f>'Cálculo de Horas'!$J$9:$J$39+'Cálculo de Horas'!$K$9:$K$39</f>
         <v>0</v>
       </c>
-      <c r="M15" s="63" t="str">
+      <c r="M15" s="43" t="str">
         <f>IF('Cálculo de Horas'!$B$9:$B$39&lt;&gt;"",
         IF(
 AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
@@ -3078,7 +3078,7 @@
          "")</f>
         <v/>
       </c>
-      <c r="N15" s="68">
+      <c r="N15" s="48">
         <f>IF(OR('Cálculo de Horas'!$J$9:$J$39&lt;&gt;0,'Cálculo de Horas'!$K$9:$K$39&lt;&gt;0),
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF('Cálculo de Horas'!$M$9:$M$39&gt;('Cálculo de Horas'!$K$9:$K$39+'Cálculo de Horas'!$J$9:$J$39),
@@ -3094,7 +3094,7 @@
 )))</f>
         <v>0</v>
       </c>
-      <c r="O15" s="68">
+      <c r="O15" s="48">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF(HOUR('Cálculo de Horas'!$N$9:$N$39)&gt;=VLOOKUP(LIMITE,Tabelas!$H$3:$J$4,Tabelas!$I$1,FALSE),
@@ -3104,48 +3104,48 @@
         'Cálculo de Horas'!$N$9:$N$39)+O14</f>
         <v>0</v>
       </c>
-      <c r="P15" s="68" t="str">
+      <c r="P15" s="48" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&lt;0,IF(OR('Cálculo de Horas'!$D$9:$D$39="",'Cálculo de Horas'!$I$9:$I$39=""),'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="Q15" s="68" t="str">
+      <c r="Q15" s="48" t="str">
         <f>IF('Cálculo de Horas'!$M$9:$M$39&lt;&gt;"",IF((N('Cálculo de Horas'!$M$9:$M$39)-ABS(N('Cálculo de Horas'!$N$9:$N$39)))=0,1,""),"")</f>
         <v/>
       </c>
-      <c r="R15" s="68" t="str">
+      <c r="R15" s="48" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="S15" s="68" t="str">
+      <c r="S15" s="48" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(OR(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Não",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="T15" s="69" t="str">
+      <c r="T15" s="49" t="str">
         <f>IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;""," - " &amp;VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")&amp;IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",'Cálculo de Horas'!$I$9:$I$39&lt;&gt;'Cálculo de Horas'!$D$9:$D$39)," - " &amp; VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")</f>
         <v/>
       </c>
       <c r="X15" s="9"/>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B16" s="61" t="str">
+      <c r="B16" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C16" s="62" t="str">
+      <c r="C16" s="42" t="str">
         <f>TEXT('Cálculo de Horas'!$B$9:$B$39,"ddd")</f>
         <v/>
       </c>
-      <c r="D16" s="112"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="63">
+      <c r="D16" s="91"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$F$9:$F$39),ISNUMBER('Cálculo de Horas'!$E$9:$E$39)),
@@ -3157,7 +3157,7 @@
                     0)),0)</f>
         <v>0</v>
       </c>
-      <c r="K16" s="63">
+      <c r="K16" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$H$9:$H$39),ISNUMBER('Cálculo de Horas'!$G$9:$G$39)),
@@ -3169,11 +3169,11 @@
        0)),0)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="63">
+      <c r="L16" s="43">
         <f>'Cálculo de Horas'!$J$9:$J$39+'Cálculo de Horas'!$K$9:$K$39</f>
         <v>0</v>
       </c>
-      <c r="M16" s="63" t="str">
+      <c r="M16" s="43" t="str">
         <f>IF('Cálculo de Horas'!$B$9:$B$39&lt;&gt;"",
         IF(
 AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
@@ -3182,7 +3182,7 @@
          "")</f>
         <v/>
       </c>
-      <c r="N16" s="64">
+      <c r="N16" s="44">
         <f>IF(OR('Cálculo de Horas'!$J$9:$J$39&lt;&gt;0,'Cálculo de Horas'!$K$9:$K$39&lt;&gt;0),
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF('Cálculo de Horas'!$M$9:$M$39&gt;('Cálculo de Horas'!$K$9:$K$39+'Cálculo de Horas'!$J$9:$J$39),
@@ -3198,7 +3198,7 @@
 )))</f>
         <v>0</v>
       </c>
-      <c r="O16" s="64">
+      <c r="O16" s="44">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF(HOUR('Cálculo de Horas'!$N$9:$N$39)&gt;=VLOOKUP(LIMITE,Tabelas!$H$3:$J$4,Tabelas!$I$1,FALSE),
@@ -3208,47 +3208,47 @@
         'Cálculo de Horas'!$N$9:$N$39)+O15</f>
         <v>0</v>
       </c>
-      <c r="P16" s="64" t="str">
+      <c r="P16" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&lt;0,IF(OR('Cálculo de Horas'!$D$9:$D$39="",'Cálculo de Horas'!$I$9:$I$39=""),'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="Q16" s="64" t="str">
+      <c r="Q16" s="44" t="str">
         <f>IF('Cálculo de Horas'!$M$9:$M$39&lt;&gt;"",IF((N('Cálculo de Horas'!$M$9:$M$39)-ABS(N('Cálculo de Horas'!$N$9:$N$39)))=0,1,""),"")</f>
         <v/>
       </c>
-      <c r="R16" s="64" t="str">
+      <c r="R16" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="S16" s="64" t="str">
+      <c r="S16" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(OR(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Não",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="T16" s="65" t="str">
+      <c r="T16" s="45" t="str">
         <f>IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;""," - " &amp;VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")&amp;IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",'Cálculo de Horas'!$I$9:$I$39&lt;&gt;'Cálculo de Horas'!$D$9:$D$39)," - " &amp; VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="66" t="str">
+      <c r="B17" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C17" s="67" t="str">
+      <c r="C17" s="47" t="str">
         <f>TEXT('Cálculo de Horas'!$B$9:$B$39,"ddd")</f>
         <v/>
       </c>
-      <c r="D17" s="112"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="63">
+      <c r="D17" s="91"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$F$9:$F$39),ISNUMBER('Cálculo de Horas'!$E$9:$E$39)),
@@ -3260,7 +3260,7 @@
                     0)),0)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="63">
+      <c r="K17" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$H$9:$H$39),ISNUMBER('Cálculo de Horas'!$G$9:$G$39)),
@@ -3272,11 +3272,11 @@
        0)),0)</f>
         <v>0</v>
       </c>
-      <c r="L17" s="63">
+      <c r="L17" s="43">
         <f>'Cálculo de Horas'!$J$9:$J$39+'Cálculo de Horas'!$K$9:$K$39</f>
         <v>0</v>
       </c>
-      <c r="M17" s="63" t="str">
+      <c r="M17" s="43" t="str">
         <f>IF('Cálculo de Horas'!$B$9:$B$39&lt;&gt;"",
         IF(
 AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
@@ -3285,7 +3285,7 @@
          "")</f>
         <v/>
       </c>
-      <c r="N17" s="68">
+      <c r="N17" s="48">
         <f>IF(OR('Cálculo de Horas'!$J$9:$J$39&lt;&gt;0,'Cálculo de Horas'!$K$9:$K$39&lt;&gt;0),
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF('Cálculo de Horas'!$M$9:$M$39&gt;('Cálculo de Horas'!$K$9:$K$39+'Cálculo de Horas'!$J$9:$J$39),
@@ -3301,7 +3301,7 @@
 )))</f>
         <v>0</v>
       </c>
-      <c r="O17" s="68">
+      <c r="O17" s="48">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF(HOUR('Cálculo de Horas'!$N$9:$N$39)&gt;=VLOOKUP(LIMITE,Tabelas!$H$3:$J$4,Tabelas!$I$1,FALSE),
@@ -3311,47 +3311,47 @@
         'Cálculo de Horas'!$N$9:$N$39)+O16</f>
         <v>0</v>
       </c>
-      <c r="P17" s="68" t="str">
+      <c r="P17" s="48" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&lt;0,IF(OR('Cálculo de Horas'!$D$9:$D$39="",'Cálculo de Horas'!$I$9:$I$39=""),'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="Q17" s="68" t="str">
+      <c r="Q17" s="48" t="str">
         <f>IF('Cálculo de Horas'!$M$9:$M$39&lt;&gt;"",IF((N('Cálculo de Horas'!$M$9:$M$39)-ABS(N('Cálculo de Horas'!$N$9:$N$39)))=0,1,""),"")</f>
         <v/>
       </c>
-      <c r="R17" s="68" t="str">
+      <c r="R17" s="48" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="S17" s="68" t="str">
+      <c r="S17" s="48" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(OR(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Não",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="T17" s="69" t="str">
+      <c r="T17" s="49" t="str">
         <f>IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;""," - " &amp;VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")&amp;IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",'Cálculo de Horas'!$I$9:$I$39&lt;&gt;'Cálculo de Horas'!$D$9:$D$39)," - " &amp; VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="61" t="str">
+      <c r="B18" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C18" s="62" t="str">
+      <c r="C18" s="42" t="str">
         <f>TEXT('Cálculo de Horas'!$B$9:$B$39,"ddd")</f>
         <v/>
       </c>
-      <c r="D18" s="112"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="114"/>
-      <c r="J18" s="63">
+      <c r="D18" s="91"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$F$9:$F$39),ISNUMBER('Cálculo de Horas'!$E$9:$E$39)),
@@ -3363,7 +3363,7 @@
                     0)),0)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="63">
+      <c r="K18" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$H$9:$H$39),ISNUMBER('Cálculo de Horas'!$G$9:$G$39)),
@@ -3375,11 +3375,11 @@
        0)),0)</f>
         <v>0</v>
       </c>
-      <c r="L18" s="63">
+      <c r="L18" s="43">
         <f>'Cálculo de Horas'!$J$9:$J$39+'Cálculo de Horas'!$K$9:$K$39</f>
         <v>0</v>
       </c>
-      <c r="M18" s="63" t="str">
+      <c r="M18" s="43" t="str">
         <f>IF('Cálculo de Horas'!$B$9:$B$39&lt;&gt;"",
         IF(
 AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
@@ -3388,7 +3388,7 @@
          "")</f>
         <v/>
       </c>
-      <c r="N18" s="64">
+      <c r="N18" s="44">
         <f>IF(OR('Cálculo de Horas'!$J$9:$J$39&lt;&gt;0,'Cálculo de Horas'!$K$9:$K$39&lt;&gt;0),
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF('Cálculo de Horas'!$M$9:$M$39&gt;('Cálculo de Horas'!$K$9:$K$39+'Cálculo de Horas'!$J$9:$J$39),
@@ -3404,7 +3404,7 @@
 )))</f>
         <v>0</v>
       </c>
-      <c r="O18" s="64">
+      <c r="O18" s="44">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF(HOUR('Cálculo de Horas'!$N$9:$N$39)&gt;=VLOOKUP(LIMITE,Tabelas!$H$3:$J$4,Tabelas!$I$1,FALSE),
@@ -3414,47 +3414,47 @@
         'Cálculo de Horas'!$N$9:$N$39)+O17</f>
         <v>0</v>
       </c>
-      <c r="P18" s="64" t="str">
+      <c r="P18" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&lt;0,IF(OR('Cálculo de Horas'!$D$9:$D$39="",'Cálculo de Horas'!$I$9:$I$39=""),'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="Q18" s="64" t="str">
+      <c r="Q18" s="44" t="str">
         <f>IF('Cálculo de Horas'!$M$9:$M$39&lt;&gt;"",IF((N('Cálculo de Horas'!$M$9:$M$39)-ABS(N('Cálculo de Horas'!$N$9:$N$39)))=0,1,""),"")</f>
         <v/>
       </c>
-      <c r="R18" s="64" t="str">
+      <c r="R18" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="S18" s="64" t="str">
+      <c r="S18" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(OR(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Não",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="T18" s="65" t="str">
+      <c r="T18" s="45" t="str">
         <f>IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;""," - " &amp;VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")&amp;IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",'Cálculo de Horas'!$I$9:$I$39&lt;&gt;'Cálculo de Horas'!$D$9:$D$39)," - " &amp; VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="66" t="str">
+      <c r="B19" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C19" s="67" t="str">
+      <c r="C19" s="47" t="str">
         <f>TEXT('Cálculo de Horas'!$B$9:$B$39,"ddd")</f>
         <v/>
       </c>
-      <c r="D19" s="112"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="63">
+      <c r="D19" s="91"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$F$9:$F$39),ISNUMBER('Cálculo de Horas'!$E$9:$E$39)),
@@ -3466,7 +3466,7 @@
                     0)),0)</f>
         <v>0</v>
       </c>
-      <c r="K19" s="63">
+      <c r="K19" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$H$9:$H$39),ISNUMBER('Cálculo de Horas'!$G$9:$G$39)),
@@ -3478,11 +3478,11 @@
        0)),0)</f>
         <v>0</v>
       </c>
-      <c r="L19" s="63">
+      <c r="L19" s="43">
         <f>'Cálculo de Horas'!$J$9:$J$39+'Cálculo de Horas'!$K$9:$K$39</f>
         <v>0</v>
       </c>
-      <c r="M19" s="63" t="str">
+      <c r="M19" s="43" t="str">
         <f>IF('Cálculo de Horas'!$B$9:$B$39&lt;&gt;"",
         IF(
 AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
@@ -3491,7 +3491,7 @@
          "")</f>
         <v/>
       </c>
-      <c r="N19" s="68">
+      <c r="N19" s="48">
         <f>IF(OR('Cálculo de Horas'!$J$9:$J$39&lt;&gt;0,'Cálculo de Horas'!$K$9:$K$39&lt;&gt;0),
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF('Cálculo de Horas'!$M$9:$M$39&gt;('Cálculo de Horas'!$K$9:$K$39+'Cálculo de Horas'!$J$9:$J$39),
@@ -3507,7 +3507,7 @@
 )))</f>
         <v>0</v>
       </c>
-      <c r="O19" s="68">
+      <c r="O19" s="48">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF(HOUR('Cálculo de Horas'!$N$9:$N$39)&gt;=VLOOKUP(LIMITE,Tabelas!$H$3:$J$4,Tabelas!$I$1,FALSE),
@@ -3517,47 +3517,47 @@
         'Cálculo de Horas'!$N$9:$N$39)+O18</f>
         <v>0</v>
       </c>
-      <c r="P19" s="68" t="str">
+      <c r="P19" s="48" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&lt;0,IF(OR('Cálculo de Horas'!$D$9:$D$39="",'Cálculo de Horas'!$I$9:$I$39=""),'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="Q19" s="68" t="str">
+      <c r="Q19" s="48" t="str">
         <f>IF('Cálculo de Horas'!$M$9:$M$39&lt;&gt;"",IF((N('Cálculo de Horas'!$M$9:$M$39)-ABS(N('Cálculo de Horas'!$N$9:$N$39)))=0,1,""),"")</f>
         <v/>
       </c>
-      <c r="R19" s="68" t="str">
+      <c r="R19" s="48" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="S19" s="68" t="str">
+      <c r="S19" s="48" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(OR(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Não",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="T19" s="69" t="str">
+      <c r="T19" s="49" t="str">
         <f>IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;""," - " &amp;VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")&amp;IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",'Cálculo de Horas'!$I$9:$I$39&lt;&gt;'Cálculo de Horas'!$D$9:$D$39)," - " &amp; VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="61" t="str">
+      <c r="B20" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C20" s="62" t="str">
+      <c r="C20" s="42" t="str">
         <f>TEXT('Cálculo de Horas'!$B$9:$B$39,"ddd")</f>
         <v/>
       </c>
-      <c r="D20" s="112"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="114"/>
-      <c r="J20" s="63">
+      <c r="D20" s="91"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$F$9:$F$39),ISNUMBER('Cálculo de Horas'!$E$9:$E$39)),
@@ -3569,7 +3569,7 @@
                     0)),0)</f>
         <v>0</v>
       </c>
-      <c r="K20" s="63">
+      <c r="K20" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$H$9:$H$39),ISNUMBER('Cálculo de Horas'!$G$9:$G$39)),
@@ -3581,11 +3581,11 @@
        0)),0)</f>
         <v>0</v>
       </c>
-      <c r="L20" s="63">
+      <c r="L20" s="43">
         <f>'Cálculo de Horas'!$J$9:$J$39+'Cálculo de Horas'!$K$9:$K$39</f>
         <v>0</v>
       </c>
-      <c r="M20" s="63" t="str">
+      <c r="M20" s="43" t="str">
         <f>IF('Cálculo de Horas'!$B$9:$B$39&lt;&gt;"",
         IF(
 AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
@@ -3594,7 +3594,7 @@
          "")</f>
         <v/>
       </c>
-      <c r="N20" s="64">
+      <c r="N20" s="44">
         <f>IF(OR('Cálculo de Horas'!$J$9:$J$39&lt;&gt;0,'Cálculo de Horas'!$K$9:$K$39&lt;&gt;0),
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF('Cálculo de Horas'!$M$9:$M$39&gt;('Cálculo de Horas'!$K$9:$K$39+'Cálculo de Horas'!$J$9:$J$39),
@@ -3610,7 +3610,7 @@
 )))</f>
         <v>0</v>
       </c>
-      <c r="O20" s="64">
+      <c r="O20" s="44">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF(HOUR('Cálculo de Horas'!$N$9:$N$39)&gt;=VLOOKUP(LIMITE,Tabelas!$H$3:$J$4,Tabelas!$I$1,FALSE),
@@ -3620,47 +3620,47 @@
         'Cálculo de Horas'!$N$9:$N$39)+O19</f>
         <v>0</v>
       </c>
-      <c r="P20" s="64" t="str">
+      <c r="P20" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&lt;0,IF(OR('Cálculo de Horas'!$D$9:$D$39="",'Cálculo de Horas'!$I$9:$I$39=""),'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="Q20" s="64" t="str">
+      <c r="Q20" s="44" t="str">
         <f>IF('Cálculo de Horas'!$M$9:$M$39&lt;&gt;"",IF((N('Cálculo de Horas'!$M$9:$M$39)-ABS(N('Cálculo de Horas'!$N$9:$N$39)))=0,1,""),"")</f>
         <v/>
       </c>
-      <c r="R20" s="64" t="str">
+      <c r="R20" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="S20" s="64" t="str">
+      <c r="S20" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(OR(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Não",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="T20" s="65" t="str">
+      <c r="T20" s="45" t="str">
         <f>IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;""," - " &amp;VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")&amp;IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",'Cálculo de Horas'!$I$9:$I$39&lt;&gt;'Cálculo de Horas'!$D$9:$D$39)," - " &amp; VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="66" t="str">
+      <c r="B21" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C21" s="67" t="str">
+      <c r="C21" s="47" t="str">
         <f>TEXT('Cálculo de Horas'!$B$9:$B$39,"ddd")</f>
         <v/>
       </c>
-      <c r="D21" s="112"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="63">
+      <c r="D21" s="91"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$F$9:$F$39),ISNUMBER('Cálculo de Horas'!$E$9:$E$39)),
@@ -3672,7 +3672,7 @@
                     0)),0)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="63">
+      <c r="K21" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$H$9:$H$39),ISNUMBER('Cálculo de Horas'!$G$9:$G$39)),
@@ -3684,11 +3684,11 @@
        0)),0)</f>
         <v>0</v>
       </c>
-      <c r="L21" s="63">
+      <c r="L21" s="43">
         <f>'Cálculo de Horas'!$J$9:$J$39+'Cálculo de Horas'!$K$9:$K$39</f>
         <v>0</v>
       </c>
-      <c r="M21" s="63" t="str">
+      <c r="M21" s="43" t="str">
         <f>IF('Cálculo de Horas'!$B$9:$B$39&lt;&gt;"",
         IF(
 AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
@@ -3697,7 +3697,7 @@
          "")</f>
         <v/>
       </c>
-      <c r="N21" s="68">
+      <c r="N21" s="48">
         <f>IF(OR('Cálculo de Horas'!$J$9:$J$39&lt;&gt;0,'Cálculo de Horas'!$K$9:$K$39&lt;&gt;0),
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF('Cálculo de Horas'!$M$9:$M$39&gt;('Cálculo de Horas'!$K$9:$K$39+'Cálculo de Horas'!$J$9:$J$39),
@@ -3713,7 +3713,7 @@
 )))</f>
         <v>0</v>
       </c>
-      <c r="O21" s="68">
+      <c r="O21" s="48">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF(HOUR('Cálculo de Horas'!$N$9:$N$39)&gt;=VLOOKUP(LIMITE,Tabelas!$H$3:$J$4,Tabelas!$I$1,FALSE),
@@ -3723,47 +3723,47 @@
         'Cálculo de Horas'!$N$9:$N$39)+O20</f>
         <v>0</v>
       </c>
-      <c r="P21" s="68" t="str">
+      <c r="P21" s="48" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&lt;0,IF(OR('Cálculo de Horas'!$D$9:$D$39="",'Cálculo de Horas'!$I$9:$I$39=""),'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="Q21" s="68" t="str">
+      <c r="Q21" s="48" t="str">
         <f>IF('Cálculo de Horas'!$M$9:$M$39&lt;&gt;"",IF((N('Cálculo de Horas'!$M$9:$M$39)-ABS(N('Cálculo de Horas'!$N$9:$N$39)))=0,1,""),"")</f>
         <v/>
       </c>
-      <c r="R21" s="68" t="str">
+      <c r="R21" s="48" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="S21" s="68" t="str">
+      <c r="S21" s="48" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(OR(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Não",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="T21" s="69" t="str">
+      <c r="T21" s="49" t="str">
         <f>IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;""," - " &amp;VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")&amp;IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",'Cálculo de Horas'!$I$9:$I$39&lt;&gt;'Cálculo de Horas'!$D$9:$D$39)," - " &amp; VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="61" t="str">
+      <c r="B22" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C22" s="62" t="str">
+      <c r="C22" s="42" t="str">
         <f>TEXT('Cálculo de Horas'!$B$9:$B$39,"ddd")</f>
         <v/>
       </c>
-      <c r="D22" s="112"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="63">
+      <c r="D22" s="91"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$F$9:$F$39),ISNUMBER('Cálculo de Horas'!$E$9:$E$39)),
@@ -3775,7 +3775,7 @@
                     0)),0)</f>
         <v>0</v>
       </c>
-      <c r="K22" s="63">
+      <c r="K22" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$H$9:$H$39),ISNUMBER('Cálculo de Horas'!$G$9:$G$39)),
@@ -3787,11 +3787,11 @@
        0)),0)</f>
         <v>0</v>
       </c>
-      <c r="L22" s="63">
+      <c r="L22" s="43">
         <f>'Cálculo de Horas'!$J$9:$J$39+'Cálculo de Horas'!$K$9:$K$39</f>
         <v>0</v>
       </c>
-      <c r="M22" s="63" t="str">
+      <c r="M22" s="43" t="str">
         <f>IF('Cálculo de Horas'!$B$9:$B$39&lt;&gt;"",
         IF(
 AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
@@ -3800,7 +3800,7 @@
          "")</f>
         <v/>
       </c>
-      <c r="N22" s="64">
+      <c r="N22" s="44">
         <f>IF(OR('Cálculo de Horas'!$J$9:$J$39&lt;&gt;0,'Cálculo de Horas'!$K$9:$K$39&lt;&gt;0),
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF('Cálculo de Horas'!$M$9:$M$39&gt;('Cálculo de Horas'!$K$9:$K$39+'Cálculo de Horas'!$J$9:$J$39),
@@ -3816,7 +3816,7 @@
 )))</f>
         <v>0</v>
       </c>
-      <c r="O22" s="64">
+      <c r="O22" s="44">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF(HOUR('Cálculo de Horas'!$N$9:$N$39)&gt;=VLOOKUP(LIMITE,Tabelas!$H$3:$J$4,Tabelas!$I$1,FALSE),
@@ -3826,47 +3826,47 @@
         'Cálculo de Horas'!$N$9:$N$39)+O21</f>
         <v>0</v>
       </c>
-      <c r="P22" s="64" t="str">
+      <c r="P22" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&lt;0,IF(OR('Cálculo de Horas'!$D$9:$D$39="",'Cálculo de Horas'!$I$9:$I$39=""),'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="Q22" s="64" t="str">
+      <c r="Q22" s="44" t="str">
         <f>IF('Cálculo de Horas'!$M$9:$M$39&lt;&gt;"",IF((N('Cálculo de Horas'!$M$9:$M$39)-ABS(N('Cálculo de Horas'!$N$9:$N$39)))=0,1,""),"")</f>
         <v/>
       </c>
-      <c r="R22" s="64" t="str">
+      <c r="R22" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="S22" s="64" t="str">
+      <c r="S22" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(OR(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Não",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="T22" s="65" t="str">
+      <c r="T22" s="45" t="str">
         <f>IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;""," - " &amp;VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")&amp;IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",'Cálculo de Horas'!$I$9:$I$39&lt;&gt;'Cálculo de Horas'!$D$9:$D$39)," - " &amp; VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="66" t="str">
+      <c r="B23" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C23" s="67" t="str">
+      <c r="C23" s="47" t="str">
         <f>TEXT('Cálculo de Horas'!$B$9:$B$39,"ddd")</f>
         <v/>
       </c>
-      <c r="D23" s="112"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="114"/>
-      <c r="J23" s="63">
+      <c r="D23" s="91"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$F$9:$F$39),ISNUMBER('Cálculo de Horas'!$E$9:$E$39)),
@@ -3878,7 +3878,7 @@
                     0)),0)</f>
         <v>0</v>
       </c>
-      <c r="K23" s="63">
+      <c r="K23" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$H$9:$H$39),ISNUMBER('Cálculo de Horas'!$G$9:$G$39)),
@@ -3890,11 +3890,11 @@
        0)),0)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="63">
+      <c r="L23" s="43">
         <f>'Cálculo de Horas'!$J$9:$J$39+'Cálculo de Horas'!$K$9:$K$39</f>
         <v>0</v>
       </c>
-      <c r="M23" s="63" t="str">
+      <c r="M23" s="43" t="str">
         <f>IF('Cálculo de Horas'!$B$9:$B$39&lt;&gt;"",
         IF(
 AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
@@ -3903,7 +3903,7 @@
          "")</f>
         <v/>
       </c>
-      <c r="N23" s="68">
+      <c r="N23" s="48">
         <f>IF(OR('Cálculo de Horas'!$J$9:$J$39&lt;&gt;0,'Cálculo de Horas'!$K$9:$K$39&lt;&gt;0),
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF('Cálculo de Horas'!$M$9:$M$39&gt;('Cálculo de Horas'!$K$9:$K$39+'Cálculo de Horas'!$J$9:$J$39),
@@ -3919,7 +3919,7 @@
 )))</f>
         <v>0</v>
       </c>
-      <c r="O23" s="68">
+      <c r="O23" s="48">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF(HOUR('Cálculo de Horas'!$N$9:$N$39)&gt;=VLOOKUP(LIMITE,Tabelas!$H$3:$J$4,Tabelas!$I$1,FALSE),
@@ -3929,47 +3929,47 @@
         'Cálculo de Horas'!$N$9:$N$39)+O22</f>
         <v>0</v>
       </c>
-      <c r="P23" s="68" t="str">
+      <c r="P23" s="48" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&lt;0,IF(OR('Cálculo de Horas'!$D$9:$D$39="",'Cálculo de Horas'!$I$9:$I$39=""),'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="Q23" s="68" t="str">
+      <c r="Q23" s="48" t="str">
         <f>IF('Cálculo de Horas'!$M$9:$M$39&lt;&gt;"",IF((N('Cálculo de Horas'!$M$9:$M$39)-ABS(N('Cálculo de Horas'!$N$9:$N$39)))=0,1,""),"")</f>
         <v/>
       </c>
-      <c r="R23" s="68" t="str">
+      <c r="R23" s="48" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="S23" s="68" t="str">
+      <c r="S23" s="48" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(OR(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Não",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="T23" s="69" t="str">
+      <c r="T23" s="49" t="str">
         <f>IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;""," - " &amp;VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")&amp;IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",'Cálculo de Horas'!$I$9:$I$39&lt;&gt;'Cálculo de Horas'!$D$9:$D$39)," - " &amp; VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="61" t="str">
+      <c r="B24" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C24" s="62" t="str">
+      <c r="C24" s="42" t="str">
         <f>TEXT('Cálculo de Horas'!$B$9:$B$39,"ddd")</f>
         <v/>
       </c>
-      <c r="D24" s="112"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="63">
+      <c r="D24" s="91"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$F$9:$F$39),ISNUMBER('Cálculo de Horas'!$E$9:$E$39)),
@@ -3981,7 +3981,7 @@
                     0)),0)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="63">
+      <c r="K24" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$H$9:$H$39),ISNUMBER('Cálculo de Horas'!$G$9:$G$39)),
@@ -3993,11 +3993,11 @@
        0)),0)</f>
         <v>0</v>
       </c>
-      <c r="L24" s="63">
+      <c r="L24" s="43">
         <f>'Cálculo de Horas'!$J$9:$J$39+'Cálculo de Horas'!$K$9:$K$39</f>
         <v>0</v>
       </c>
-      <c r="M24" s="63" t="str">
+      <c r="M24" s="43" t="str">
         <f>IF('Cálculo de Horas'!$B$9:$B$39&lt;&gt;"",
         IF(
 AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
@@ -4006,7 +4006,7 @@
          "")</f>
         <v/>
       </c>
-      <c r="N24" s="64">
+      <c r="N24" s="44">
         <f>IF(OR('Cálculo de Horas'!$J$9:$J$39&lt;&gt;0,'Cálculo de Horas'!$K$9:$K$39&lt;&gt;0),
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF('Cálculo de Horas'!$M$9:$M$39&gt;('Cálculo de Horas'!$K$9:$K$39+'Cálculo de Horas'!$J$9:$J$39),
@@ -4022,7 +4022,7 @@
 )))</f>
         <v>0</v>
       </c>
-      <c r="O24" s="64">
+      <c r="O24" s="44">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF(HOUR('Cálculo de Horas'!$N$9:$N$39)&gt;=VLOOKUP(LIMITE,Tabelas!$H$3:$J$4,Tabelas!$I$1,FALSE),
@@ -4032,47 +4032,47 @@
         'Cálculo de Horas'!$N$9:$N$39)+O23</f>
         <v>0</v>
       </c>
-      <c r="P24" s="64" t="str">
+      <c r="P24" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&lt;0,IF(OR('Cálculo de Horas'!$D$9:$D$39="",'Cálculo de Horas'!$I$9:$I$39=""),'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="Q24" s="64" t="str">
+      <c r="Q24" s="44" t="str">
         <f>IF('Cálculo de Horas'!$M$9:$M$39&lt;&gt;"",IF((N('Cálculo de Horas'!$M$9:$M$39)-ABS(N('Cálculo de Horas'!$N$9:$N$39)))=0,1,""),"")</f>
         <v/>
       </c>
-      <c r="R24" s="64" t="str">
+      <c r="R24" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="S24" s="64" t="str">
+      <c r="S24" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(OR(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Não",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="T24" s="65" t="str">
+      <c r="T24" s="45" t="str">
         <f>IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;""," - " &amp;VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")&amp;IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",'Cálculo de Horas'!$I$9:$I$39&lt;&gt;'Cálculo de Horas'!$D$9:$D$39)," - " &amp; VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="66" t="str">
+      <c r="B25" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C25" s="67" t="str">
+      <c r="C25" s="47" t="str">
         <f>TEXT('Cálculo de Horas'!$B$9:$B$39,"ddd")</f>
         <v/>
       </c>
-      <c r="D25" s="112"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="114"/>
-      <c r="J25" s="63">
+      <c r="D25" s="91"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$F$9:$F$39),ISNUMBER('Cálculo de Horas'!$E$9:$E$39)),
@@ -4084,7 +4084,7 @@
                     0)),0)</f>
         <v>0</v>
       </c>
-      <c r="K25" s="63">
+      <c r="K25" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$H$9:$H$39),ISNUMBER('Cálculo de Horas'!$G$9:$G$39)),
@@ -4096,11 +4096,11 @@
        0)),0)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="63">
+      <c r="L25" s="43">
         <f>'Cálculo de Horas'!$J$9:$J$39+'Cálculo de Horas'!$K$9:$K$39</f>
         <v>0</v>
       </c>
-      <c r="M25" s="63" t="str">
+      <c r="M25" s="43" t="str">
         <f>IF('Cálculo de Horas'!$B$9:$B$39&lt;&gt;"",
         IF(
 AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
@@ -4109,7 +4109,7 @@
          "")</f>
         <v/>
       </c>
-      <c r="N25" s="68">
+      <c r="N25" s="48">
         <f>IF(OR('Cálculo de Horas'!$J$9:$J$39&lt;&gt;0,'Cálculo de Horas'!$K$9:$K$39&lt;&gt;0),
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF('Cálculo de Horas'!$M$9:$M$39&gt;('Cálculo de Horas'!$K$9:$K$39+'Cálculo de Horas'!$J$9:$J$39),
@@ -4125,7 +4125,7 @@
 )))</f>
         <v>0</v>
       </c>
-      <c r="O25" s="68">
+      <c r="O25" s="48">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF(HOUR('Cálculo de Horas'!$N$9:$N$39)&gt;=VLOOKUP(LIMITE,Tabelas!$H$3:$J$4,Tabelas!$I$1,FALSE),
@@ -4135,47 +4135,47 @@
         'Cálculo de Horas'!$N$9:$N$39)+O24</f>
         <v>0</v>
       </c>
-      <c r="P25" s="68" t="str">
+      <c r="P25" s="48" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&lt;0,IF(OR('Cálculo de Horas'!$D$9:$D$39="",'Cálculo de Horas'!$I$9:$I$39=""),'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="Q25" s="68" t="str">
+      <c r="Q25" s="48" t="str">
         <f>IF('Cálculo de Horas'!$M$9:$M$39&lt;&gt;"",IF((N('Cálculo de Horas'!$M$9:$M$39)-ABS(N('Cálculo de Horas'!$N$9:$N$39)))=0,1,""),"")</f>
         <v/>
       </c>
-      <c r="R25" s="68" t="str">
+      <c r="R25" s="48" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="S25" s="68" t="str">
+      <c r="S25" s="48" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(OR(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Não",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="T25" s="69" t="str">
+      <c r="T25" s="49" t="str">
         <f>IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;""," - " &amp;VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")&amp;IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",'Cálculo de Horas'!$I$9:$I$39&lt;&gt;'Cálculo de Horas'!$D$9:$D$39)," - " &amp; VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="61" t="str">
+      <c r="B26" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C26" s="62" t="str">
+      <c r="C26" s="42" t="str">
         <f>TEXT('Cálculo de Horas'!$B$9:$B$39,"ddd")</f>
         <v/>
       </c>
-      <c r="D26" s="112"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="114"/>
-      <c r="J26" s="63">
+      <c r="D26" s="91"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$F$9:$F$39),ISNUMBER('Cálculo de Horas'!$E$9:$E$39)),
@@ -4187,7 +4187,7 @@
                     0)),0)</f>
         <v>0</v>
       </c>
-      <c r="K26" s="63">
+      <c r="K26" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$H$9:$H$39),ISNUMBER('Cálculo de Horas'!$G$9:$G$39)),
@@ -4199,11 +4199,11 @@
        0)),0)</f>
         <v>0</v>
       </c>
-      <c r="L26" s="63">
+      <c r="L26" s="43">
         <f>'Cálculo de Horas'!$J$9:$J$39+'Cálculo de Horas'!$K$9:$K$39</f>
         <v>0</v>
       </c>
-      <c r="M26" s="63" t="str">
+      <c r="M26" s="43" t="str">
         <f>IF('Cálculo de Horas'!$B$9:$B$39&lt;&gt;"",
         IF(
 AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
@@ -4212,7 +4212,7 @@
          "")</f>
         <v/>
       </c>
-      <c r="N26" s="64">
+      <c r="N26" s="44">
         <f>IF(OR('Cálculo de Horas'!$J$9:$J$39&lt;&gt;0,'Cálculo de Horas'!$K$9:$K$39&lt;&gt;0),
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF('Cálculo de Horas'!$M$9:$M$39&gt;('Cálculo de Horas'!$K$9:$K$39+'Cálculo de Horas'!$J$9:$J$39),
@@ -4228,7 +4228,7 @@
 )))</f>
         <v>0</v>
       </c>
-      <c r="O26" s="64">
+      <c r="O26" s="44">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF(HOUR('Cálculo de Horas'!$N$9:$N$39)&gt;=VLOOKUP(LIMITE,Tabelas!$H$3:$J$4,Tabelas!$I$1,FALSE),
@@ -4238,47 +4238,47 @@
         'Cálculo de Horas'!$N$9:$N$39)+O25</f>
         <v>0</v>
       </c>
-      <c r="P26" s="64" t="str">
+      <c r="P26" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&lt;0,IF(OR('Cálculo de Horas'!$D$9:$D$39="",'Cálculo de Horas'!$I$9:$I$39=""),'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="Q26" s="64" t="str">
+      <c r="Q26" s="44" t="str">
         <f>IF('Cálculo de Horas'!$M$9:$M$39&lt;&gt;"",IF((N('Cálculo de Horas'!$M$9:$M$39)-ABS(N('Cálculo de Horas'!$N$9:$N$39)))=0,1,""),"")</f>
         <v/>
       </c>
-      <c r="R26" s="64" t="str">
+      <c r="R26" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="S26" s="64" t="str">
+      <c r="S26" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(OR(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Não",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="T26" s="65" t="str">
+      <c r="T26" s="45" t="str">
         <f>IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;""," - " &amp;VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")&amp;IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",'Cálculo de Horas'!$I$9:$I$39&lt;&gt;'Cálculo de Horas'!$D$9:$D$39)," - " &amp; VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="66" t="str">
+      <c r="B27" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C27" s="67" t="str">
+      <c r="C27" s="47" t="str">
         <f>TEXT('Cálculo de Horas'!$B$9:$B$39,"ddd")</f>
         <v/>
       </c>
-      <c r="D27" s="112"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="114"/>
-      <c r="J27" s="63">
+      <c r="D27" s="91"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$F$9:$F$39),ISNUMBER('Cálculo de Horas'!$E$9:$E$39)),
@@ -4290,7 +4290,7 @@
                     0)),0)</f>
         <v>0</v>
       </c>
-      <c r="K27" s="63">
+      <c r="K27" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$H$9:$H$39),ISNUMBER('Cálculo de Horas'!$G$9:$G$39)),
@@ -4302,11 +4302,11 @@
        0)),0)</f>
         <v>0</v>
       </c>
-      <c r="L27" s="63">
+      <c r="L27" s="43">
         <f>'Cálculo de Horas'!$J$9:$J$39+'Cálculo de Horas'!$K$9:$K$39</f>
         <v>0</v>
       </c>
-      <c r="M27" s="63" t="str">
+      <c r="M27" s="43" t="str">
         <f>IF('Cálculo de Horas'!$B$9:$B$39&lt;&gt;"",
         IF(
 AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
@@ -4315,7 +4315,7 @@
          "")</f>
         <v/>
       </c>
-      <c r="N27" s="68">
+      <c r="N27" s="48">
         <f>IF(OR('Cálculo de Horas'!$J$9:$J$39&lt;&gt;0,'Cálculo de Horas'!$K$9:$K$39&lt;&gt;0),
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF('Cálculo de Horas'!$M$9:$M$39&gt;('Cálculo de Horas'!$K$9:$K$39+'Cálculo de Horas'!$J$9:$J$39),
@@ -4331,7 +4331,7 @@
 )))</f>
         <v>0</v>
       </c>
-      <c r="O27" s="68">
+      <c r="O27" s="48">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF(HOUR('Cálculo de Horas'!$N$9:$N$39)&gt;=VLOOKUP(LIMITE,Tabelas!$H$3:$J$4,Tabelas!$I$1,FALSE),
@@ -4341,47 +4341,47 @@
         'Cálculo de Horas'!$N$9:$N$39)+O26</f>
         <v>0</v>
       </c>
-      <c r="P27" s="68" t="str">
+      <c r="P27" s="48" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&lt;0,IF(OR('Cálculo de Horas'!$D$9:$D$39="",'Cálculo de Horas'!$I$9:$I$39=""),'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="Q27" s="68" t="str">
+      <c r="Q27" s="48" t="str">
         <f>IF('Cálculo de Horas'!$M$9:$M$39&lt;&gt;"",IF((N('Cálculo de Horas'!$M$9:$M$39)-ABS(N('Cálculo de Horas'!$N$9:$N$39)))=0,1,""),"")</f>
         <v/>
       </c>
-      <c r="R27" s="68" t="str">
+      <c r="R27" s="48" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="S27" s="68" t="str">
+      <c r="S27" s="48" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(OR(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Não",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="T27" s="69" t="str">
+      <c r="T27" s="49" t="str">
         <f>IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;""," - " &amp;VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")&amp;IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",'Cálculo de Horas'!$I$9:$I$39&lt;&gt;'Cálculo de Horas'!$D$9:$D$39)," - " &amp; VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="61" t="str">
+      <c r="B28" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C28" s="62" t="str">
+      <c r="C28" s="42" t="str">
         <f>TEXT('Cálculo de Horas'!$B$9:$B$39,"ddd")</f>
         <v/>
       </c>
-      <c r="D28" s="112"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="114"/>
-      <c r="J28" s="63">
+      <c r="D28" s="91"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="117"/>
+      <c r="J28" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$F$9:$F$39),ISNUMBER('Cálculo de Horas'!$E$9:$E$39)),
@@ -4393,7 +4393,7 @@
                     0)),0)</f>
         <v>0</v>
       </c>
-      <c r="K28" s="63">
+      <c r="K28" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$H$9:$H$39),ISNUMBER('Cálculo de Horas'!$G$9:$G$39)),
@@ -4405,11 +4405,11 @@
        0)),0)</f>
         <v>0</v>
       </c>
-      <c r="L28" s="63">
+      <c r="L28" s="43">
         <f>'Cálculo de Horas'!$J$9:$J$39+'Cálculo de Horas'!$K$9:$K$39</f>
         <v>0</v>
       </c>
-      <c r="M28" s="63" t="str">
+      <c r="M28" s="43" t="str">
         <f>IF('Cálculo de Horas'!$B$9:$B$39&lt;&gt;"",
         IF(
 AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
@@ -4418,7 +4418,7 @@
          "")</f>
         <v/>
       </c>
-      <c r="N28" s="64">
+      <c r="N28" s="44">
         <f>IF(OR('Cálculo de Horas'!$J$9:$J$39&lt;&gt;0,'Cálculo de Horas'!$K$9:$K$39&lt;&gt;0),
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF('Cálculo de Horas'!$M$9:$M$39&gt;('Cálculo de Horas'!$K$9:$K$39+'Cálculo de Horas'!$J$9:$J$39),
@@ -4434,7 +4434,7 @@
 )))</f>
         <v>0</v>
       </c>
-      <c r="O28" s="64">
+      <c r="O28" s="44">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF(HOUR('Cálculo de Horas'!$N$9:$N$39)&gt;=VLOOKUP(LIMITE,Tabelas!$H$3:$J$4,Tabelas!$I$1,FALSE),
@@ -4444,47 +4444,47 @@
         'Cálculo de Horas'!$N$9:$N$39)+O27</f>
         <v>0</v>
       </c>
-      <c r="P28" s="64" t="str">
+      <c r="P28" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&lt;0,IF(OR('Cálculo de Horas'!$D$9:$D$39="",'Cálculo de Horas'!$I$9:$I$39=""),'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="Q28" s="64" t="str">
+      <c r="Q28" s="44" t="str">
         <f>IF('Cálculo de Horas'!$M$9:$M$39&lt;&gt;"",IF((N('Cálculo de Horas'!$M$9:$M$39)-ABS(N('Cálculo de Horas'!$N$9:$N$39)))=0,1,""),"")</f>
         <v/>
       </c>
-      <c r="R28" s="64" t="str">
+      <c r="R28" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="S28" s="64" t="str">
+      <c r="S28" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(OR(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Não",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="T28" s="65" t="str">
+      <c r="T28" s="45" t="str">
         <f>IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;""," - " &amp;VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")&amp;IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",'Cálculo de Horas'!$I$9:$I$39&lt;&gt;'Cálculo de Horas'!$D$9:$D$39)," - " &amp; VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B29" s="66" t="str">
+      <c r="B29" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C29" s="67" t="str">
+      <c r="C29" s="47" t="str">
         <f>TEXT('Cálculo de Horas'!$B$9:$B$39,"ddd")</f>
         <v/>
       </c>
-      <c r="D29" s="112"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="115"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="114"/>
-      <c r="J29" s="63">
+      <c r="D29" s="91"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$F$9:$F$39),ISNUMBER('Cálculo de Horas'!$E$9:$E$39)),
@@ -4496,7 +4496,7 @@
                     0)),0)</f>
         <v>0</v>
       </c>
-      <c r="K29" s="63">
+      <c r="K29" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$H$9:$H$39),ISNUMBER('Cálculo de Horas'!$G$9:$G$39)),
@@ -4508,11 +4508,11 @@
        0)),0)</f>
         <v>0</v>
       </c>
-      <c r="L29" s="63">
+      <c r="L29" s="43">
         <f>'Cálculo de Horas'!$J$9:$J$39+'Cálculo de Horas'!$K$9:$K$39</f>
         <v>0</v>
       </c>
-      <c r="M29" s="63" t="str">
+      <c r="M29" s="43" t="str">
         <f>IF('Cálculo de Horas'!$B$9:$B$39&lt;&gt;"",
         IF(
 AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
@@ -4521,7 +4521,7 @@
          "")</f>
         <v/>
       </c>
-      <c r="N29" s="68">
+      <c r="N29" s="48">
         <f>IF(OR('Cálculo de Horas'!$J$9:$J$39&lt;&gt;0,'Cálculo de Horas'!$K$9:$K$39&lt;&gt;0),
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF('Cálculo de Horas'!$M$9:$M$39&gt;('Cálculo de Horas'!$K$9:$K$39+'Cálculo de Horas'!$J$9:$J$39),
@@ -4537,7 +4537,7 @@
 )))</f>
         <v>0</v>
       </c>
-      <c r="O29" s="68">
+      <c r="O29" s="48">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF(HOUR('Cálculo de Horas'!$N$9:$N$39)&gt;=VLOOKUP(LIMITE,Tabelas!$H$3:$J$4,Tabelas!$I$1,FALSE),
@@ -4547,47 +4547,47 @@
         'Cálculo de Horas'!$N$9:$N$39)+O28</f>
         <v>0</v>
       </c>
-      <c r="P29" s="68" t="str">
+      <c r="P29" s="48" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&lt;0,IF(OR('Cálculo de Horas'!$D$9:$D$39="",'Cálculo de Horas'!$I$9:$I$39=""),'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="Q29" s="68" t="str">
+      <c r="Q29" s="48" t="str">
         <f>IF('Cálculo de Horas'!$M$9:$M$39&lt;&gt;"",IF((N('Cálculo de Horas'!$M$9:$M$39)-ABS(N('Cálculo de Horas'!$N$9:$N$39)))=0,1,""),"")</f>
         <v/>
       </c>
-      <c r="R29" s="68" t="str">
+      <c r="R29" s="48" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="S29" s="68" t="str">
+      <c r="S29" s="48" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(OR(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Não",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="T29" s="69" t="str">
+      <c r="T29" s="49" t="str">
         <f>IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;""," - " &amp;VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")&amp;IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",'Cálculo de Horas'!$I$9:$I$39&lt;&gt;'Cálculo de Horas'!$D$9:$D$39)," - " &amp; VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B30" s="61" t="str">
+      <c r="B30" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C30" s="62" t="str">
+      <c r="C30" s="42" t="str">
         <f>TEXT('Cálculo de Horas'!$B$9:$B$39,"ddd")</f>
         <v/>
       </c>
-      <c r="D30" s="112"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="113"/>
-      <c r="I30" s="114"/>
-      <c r="J30" s="63">
+      <c r="D30" s="91"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$F$9:$F$39),ISNUMBER('Cálculo de Horas'!$E$9:$E$39)),
@@ -4599,7 +4599,7 @@
                     0)),0)</f>
         <v>0</v>
       </c>
-      <c r="K30" s="63">
+      <c r="K30" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$H$9:$H$39),ISNUMBER('Cálculo de Horas'!$G$9:$G$39)),
@@ -4611,11 +4611,11 @@
        0)),0)</f>
         <v>0</v>
       </c>
-      <c r="L30" s="63">
+      <c r="L30" s="43">
         <f>'Cálculo de Horas'!$J$9:$J$39+'Cálculo de Horas'!$K$9:$K$39</f>
         <v>0</v>
       </c>
-      <c r="M30" s="63" t="str">
+      <c r="M30" s="43" t="str">
         <f>IF('Cálculo de Horas'!$B$9:$B$39&lt;&gt;"",
         IF(
 AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
@@ -4624,7 +4624,7 @@
          "")</f>
         <v/>
       </c>
-      <c r="N30" s="64">
+      <c r="N30" s="44">
         <f>IF(OR('Cálculo de Horas'!$J$9:$J$39&lt;&gt;0,'Cálculo de Horas'!$K$9:$K$39&lt;&gt;0),
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF('Cálculo de Horas'!$M$9:$M$39&gt;('Cálculo de Horas'!$K$9:$K$39+'Cálculo de Horas'!$J$9:$J$39),
@@ -4640,7 +4640,7 @@
 )))</f>
         <v>0</v>
       </c>
-      <c r="O30" s="64">
+      <c r="O30" s="44">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF(HOUR('Cálculo de Horas'!$N$9:$N$39)&gt;=VLOOKUP(LIMITE,Tabelas!$H$3:$J$4,Tabelas!$I$1,FALSE),
@@ -4650,47 +4650,47 @@
         'Cálculo de Horas'!$N$9:$N$39)+O29</f>
         <v>0</v>
       </c>
-      <c r="P30" s="64" t="str">
+      <c r="P30" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&lt;0,IF(OR('Cálculo de Horas'!$D$9:$D$39="",'Cálculo de Horas'!$I$9:$I$39=""),'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="Q30" s="64" t="str">
+      <c r="Q30" s="44" t="str">
         <f>IF('Cálculo de Horas'!$M$9:$M$39&lt;&gt;"",IF((N('Cálculo de Horas'!$M$9:$M$39)-ABS(N('Cálculo de Horas'!$N$9:$N$39)))=0,1,""),"")</f>
         <v/>
       </c>
-      <c r="R30" s="64" t="str">
+      <c r="R30" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="S30" s="64" t="str">
+      <c r="S30" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(OR(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Não",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="T30" s="65" t="str">
+      <c r="T30" s="45" t="str">
         <f>IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;""," - " &amp;VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")&amp;IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",'Cálculo de Horas'!$I$9:$I$39&lt;&gt;'Cálculo de Horas'!$D$9:$D$39)," - " &amp; VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B31" s="66" t="str">
+      <c r="B31" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C31" s="67" t="str">
+      <c r="C31" s="47" t="str">
         <f>TEXT('Cálculo de Horas'!$B$9:$B$39,"ddd")</f>
         <v/>
       </c>
-      <c r="D31" s="112"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="114"/>
-      <c r="J31" s="63">
+      <c r="D31" s="91"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$F$9:$F$39),ISNUMBER('Cálculo de Horas'!$E$9:$E$39)),
@@ -4702,7 +4702,7 @@
                     0)),0)</f>
         <v>0</v>
       </c>
-      <c r="K31" s="63">
+      <c r="K31" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$H$9:$H$39),ISNUMBER('Cálculo de Horas'!$G$9:$G$39)),
@@ -4714,11 +4714,11 @@
        0)),0)</f>
         <v>0</v>
       </c>
-      <c r="L31" s="63">
+      <c r="L31" s="43">
         <f>'Cálculo de Horas'!$J$9:$J$39+'Cálculo de Horas'!$K$9:$K$39</f>
         <v>0</v>
       </c>
-      <c r="M31" s="63" t="str">
+      <c r="M31" s="43" t="str">
         <f>IF('Cálculo de Horas'!$B$9:$B$39&lt;&gt;"",
         IF(
 AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
@@ -4727,7 +4727,7 @@
          "")</f>
         <v/>
       </c>
-      <c r="N31" s="68">
+      <c r="N31" s="48">
         <f>IF(OR('Cálculo de Horas'!$J$9:$J$39&lt;&gt;0,'Cálculo de Horas'!$K$9:$K$39&lt;&gt;0),
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF('Cálculo de Horas'!$M$9:$M$39&gt;('Cálculo de Horas'!$K$9:$K$39+'Cálculo de Horas'!$J$9:$J$39),
@@ -4743,7 +4743,7 @@
 )))</f>
         <v>0</v>
       </c>
-      <c r="O31" s="68">
+      <c r="O31" s="48">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF(HOUR('Cálculo de Horas'!$N$9:$N$39)&gt;=VLOOKUP(LIMITE,Tabelas!$H$3:$J$4,Tabelas!$I$1,FALSE),
@@ -4753,47 +4753,47 @@
         'Cálculo de Horas'!$N$9:$N$39)+O30</f>
         <v>0</v>
       </c>
-      <c r="P31" s="68" t="str">
+      <c r="P31" s="48" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&lt;0,IF(OR('Cálculo de Horas'!$D$9:$D$39="",'Cálculo de Horas'!$I$9:$I$39=""),'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="Q31" s="68" t="str">
+      <c r="Q31" s="48" t="str">
         <f>IF('Cálculo de Horas'!$M$9:$M$39&lt;&gt;"",IF((N('Cálculo de Horas'!$M$9:$M$39)-ABS(N('Cálculo de Horas'!$N$9:$N$39)))=0,1,""),"")</f>
         <v/>
       </c>
-      <c r="R31" s="68" t="str">
+      <c r="R31" s="48" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="S31" s="68" t="str">
+      <c r="S31" s="48" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(OR(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Não",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="T31" s="69" t="str">
+      <c r="T31" s="49" t="str">
         <f>IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;""," - " &amp;VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")&amp;IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",'Cálculo de Horas'!$I$9:$I$39&lt;&gt;'Cálculo de Horas'!$D$9:$D$39)," - " &amp; VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B32" s="61" t="str">
+      <c r="B32" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C32" s="62" t="str">
+      <c r="C32" s="42" t="str">
         <f>TEXT('Cálculo de Horas'!$B$9:$B$39,"ddd")</f>
         <v/>
       </c>
-      <c r="D32" s="112"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="114"/>
-      <c r="J32" s="63">
+      <c r="D32" s="91"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$F$9:$F$39),ISNUMBER('Cálculo de Horas'!$E$9:$E$39)),
@@ -4805,7 +4805,7 @@
                     0)),0)</f>
         <v>0</v>
       </c>
-      <c r="K32" s="63">
+      <c r="K32" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$H$9:$H$39),ISNUMBER('Cálculo de Horas'!$G$9:$G$39)),
@@ -4817,11 +4817,11 @@
        0)),0)</f>
         <v>0</v>
       </c>
-      <c r="L32" s="63">
+      <c r="L32" s="43">
         <f>'Cálculo de Horas'!$J$9:$J$39+'Cálculo de Horas'!$K$9:$K$39</f>
         <v>0</v>
       </c>
-      <c r="M32" s="63" t="str">
+      <c r="M32" s="43" t="str">
         <f>IF('Cálculo de Horas'!$B$9:$B$39&lt;&gt;"",
         IF(
 AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
@@ -4830,7 +4830,7 @@
          "")</f>
         <v/>
       </c>
-      <c r="N32" s="64">
+      <c r="N32" s="44">
         <f>IF(OR('Cálculo de Horas'!$J$9:$J$39&lt;&gt;0,'Cálculo de Horas'!$K$9:$K$39&lt;&gt;0),
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF('Cálculo de Horas'!$M$9:$M$39&gt;('Cálculo de Horas'!$K$9:$K$39+'Cálculo de Horas'!$J$9:$J$39),
@@ -4846,7 +4846,7 @@
 )))</f>
         <v>0</v>
       </c>
-      <c r="O32" s="64">
+      <c r="O32" s="44">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF(HOUR('Cálculo de Horas'!$N$9:$N$39)&gt;=VLOOKUP(LIMITE,Tabelas!$H$3:$J$4,Tabelas!$I$1,FALSE),
@@ -4856,47 +4856,47 @@
         'Cálculo de Horas'!$N$9:$N$39)+O31</f>
         <v>0</v>
       </c>
-      <c r="P32" s="64" t="str">
+      <c r="P32" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&lt;0,IF(OR('Cálculo de Horas'!$D$9:$D$39="",'Cálculo de Horas'!$I$9:$I$39=""),'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="Q32" s="64" t="str">
+      <c r="Q32" s="44" t="str">
         <f>IF('Cálculo de Horas'!$M$9:$M$39&lt;&gt;"",IF((N('Cálculo de Horas'!$M$9:$M$39)-ABS(N('Cálculo de Horas'!$N$9:$N$39)))=0,1,""),"")</f>
         <v/>
       </c>
-      <c r="R32" s="64" t="str">
+      <c r="R32" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="S32" s="64" t="str">
+      <c r="S32" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(OR(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Não",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="T32" s="65" t="str">
+      <c r="T32" s="45" t="str">
         <f>IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;""," - " &amp;VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")&amp;IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",'Cálculo de Horas'!$I$9:$I$39&lt;&gt;'Cálculo de Horas'!$D$9:$D$39)," - " &amp; VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B33" s="66" t="str">
+      <c r="B33" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C33" s="67" t="str">
+      <c r="C33" s="47" t="str">
         <f>TEXT('Cálculo de Horas'!$B$9:$B$39,"ddd")</f>
         <v/>
       </c>
-      <c r="D33" s="112"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="114"/>
-      <c r="J33" s="63">
+      <c r="D33" s="91"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$F$9:$F$39),ISNUMBER('Cálculo de Horas'!$E$9:$E$39)),
@@ -4908,7 +4908,7 @@
                     0)),0)</f>
         <v>0</v>
       </c>
-      <c r="K33" s="63">
+      <c r="K33" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$H$9:$H$39),ISNUMBER('Cálculo de Horas'!$G$9:$G$39)),
@@ -4920,11 +4920,11 @@
        0)),0)</f>
         <v>0</v>
       </c>
-      <c r="L33" s="63">
+      <c r="L33" s="43">
         <f>'Cálculo de Horas'!$J$9:$J$39+'Cálculo de Horas'!$K$9:$K$39</f>
         <v>0</v>
       </c>
-      <c r="M33" s="63" t="str">
+      <c r="M33" s="43" t="str">
         <f>IF('Cálculo de Horas'!$B$9:$B$39&lt;&gt;"",
         IF(
 AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
@@ -4933,7 +4933,7 @@
          "")</f>
         <v/>
       </c>
-      <c r="N33" s="68">
+      <c r="N33" s="48">
         <f>IF(OR('Cálculo de Horas'!$J$9:$J$39&lt;&gt;0,'Cálculo de Horas'!$K$9:$K$39&lt;&gt;0),
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF('Cálculo de Horas'!$M$9:$M$39&gt;('Cálculo de Horas'!$K$9:$K$39+'Cálculo de Horas'!$J$9:$J$39),
@@ -4949,7 +4949,7 @@
 )))</f>
         <v>0</v>
       </c>
-      <c r="O33" s="68">
+      <c r="O33" s="48">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF(HOUR('Cálculo de Horas'!$N$9:$N$39)&gt;=VLOOKUP(LIMITE,Tabelas!$H$3:$J$4,Tabelas!$I$1,FALSE),
@@ -4959,47 +4959,47 @@
         'Cálculo de Horas'!$N$9:$N$39)+O32</f>
         <v>0</v>
       </c>
-      <c r="P33" s="68" t="str">
+      <c r="P33" s="48" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&lt;0,IF(OR('Cálculo de Horas'!$D$9:$D$39="",'Cálculo de Horas'!$I$9:$I$39=""),'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="Q33" s="68" t="str">
+      <c r="Q33" s="48" t="str">
         <f>IF('Cálculo de Horas'!$M$9:$M$39&lt;&gt;"",IF((N('Cálculo de Horas'!$M$9:$M$39)-ABS(N('Cálculo de Horas'!$N$9:$N$39)))=0,1,""),"")</f>
         <v/>
       </c>
-      <c r="R33" s="68" t="str">
+      <c r="R33" s="48" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="S33" s="68" t="str">
+      <c r="S33" s="48" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(OR(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Não",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="T33" s="69" t="str">
+      <c r="T33" s="49" t="str">
         <f>IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;""," - " &amp;VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")&amp;IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",'Cálculo de Horas'!$I$9:$I$39&lt;&gt;'Cálculo de Horas'!$D$9:$D$39)," - " &amp; VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B34" s="61" t="str">
+      <c r="B34" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C34" s="62" t="str">
+      <c r="C34" s="42" t="str">
         <f>TEXT('Cálculo de Horas'!$B$9:$B$39,"ddd")</f>
         <v/>
       </c>
-      <c r="D34" s="112"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="113"/>
-      <c r="I34" s="114"/>
-      <c r="J34" s="63">
+      <c r="D34" s="91"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$F$9:$F$39),ISNUMBER('Cálculo de Horas'!$E$9:$E$39)),
@@ -5011,7 +5011,7 @@
                     0)),0)</f>
         <v>0</v>
       </c>
-      <c r="K34" s="63">
+      <c r="K34" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$H$9:$H$39),ISNUMBER('Cálculo de Horas'!$G$9:$G$39)),
@@ -5023,11 +5023,11 @@
        0)),0)</f>
         <v>0</v>
       </c>
-      <c r="L34" s="63">
+      <c r="L34" s="43">
         <f>'Cálculo de Horas'!$J$9:$J$39+'Cálculo de Horas'!$K$9:$K$39</f>
         <v>0</v>
       </c>
-      <c r="M34" s="63" t="str">
+      <c r="M34" s="43" t="str">
         <f>IF('Cálculo de Horas'!$B$9:$B$39&lt;&gt;"",
         IF(
 AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
@@ -5036,7 +5036,7 @@
          "")</f>
         <v/>
       </c>
-      <c r="N34" s="64">
+      <c r="N34" s="44">
         <f>IF(OR('Cálculo de Horas'!$J$9:$J$39&lt;&gt;0,'Cálculo de Horas'!$K$9:$K$39&lt;&gt;0),
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF('Cálculo de Horas'!$M$9:$M$39&gt;('Cálculo de Horas'!$K$9:$K$39+'Cálculo de Horas'!$J$9:$J$39),
@@ -5052,7 +5052,7 @@
 )))</f>
         <v>0</v>
       </c>
-      <c r="O34" s="64">
+      <c r="O34" s="44">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF(HOUR('Cálculo de Horas'!$N$9:$N$39)&gt;=VLOOKUP(LIMITE,Tabelas!$H$3:$J$4,Tabelas!$I$1,FALSE),
@@ -5062,47 +5062,47 @@
         'Cálculo de Horas'!$N$9:$N$39)+O33</f>
         <v>0</v>
       </c>
-      <c r="P34" s="64" t="str">
+      <c r="P34" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&lt;0,IF(OR('Cálculo de Horas'!$D$9:$D$39="",'Cálculo de Horas'!$I$9:$I$39=""),'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="Q34" s="64" t="str">
+      <c r="Q34" s="44" t="str">
         <f>IF('Cálculo de Horas'!$M$9:$M$39&lt;&gt;"",IF((N('Cálculo de Horas'!$M$9:$M$39)-ABS(N('Cálculo de Horas'!$N$9:$N$39)))=0,1,""),"")</f>
         <v/>
       </c>
-      <c r="R34" s="64" t="str">
+      <c r="R34" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="S34" s="64" t="str">
+      <c r="S34" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(OR(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Não",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="T34" s="65" t="str">
+      <c r="T34" s="45" t="str">
         <f>IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;""," - " &amp;VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")&amp;IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",'Cálculo de Horas'!$I$9:$I$39&lt;&gt;'Cálculo de Horas'!$D$9:$D$39)," - " &amp; VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B35" s="66" t="str">
+      <c r="B35" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C35" s="67" t="str">
+      <c r="C35" s="47" t="str">
         <f>TEXT('Cálculo de Horas'!$B$9:$B$39,"ddd")</f>
         <v/>
       </c>
-      <c r="D35" s="112"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="115"/>
-      <c r="H35" s="115"/>
-      <c r="I35" s="114"/>
-      <c r="J35" s="63">
+      <c r="D35" s="91"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$F$9:$F$39),ISNUMBER('Cálculo de Horas'!$E$9:$E$39)),
@@ -5114,7 +5114,7 @@
                     0)),0)</f>
         <v>0</v>
       </c>
-      <c r="K35" s="63">
+      <c r="K35" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$H$9:$H$39),ISNUMBER('Cálculo de Horas'!$G$9:$G$39)),
@@ -5126,11 +5126,11 @@
        0)),0)</f>
         <v>0</v>
       </c>
-      <c r="L35" s="63">
+      <c r="L35" s="43">
         <f>'Cálculo de Horas'!$J$9:$J$39+'Cálculo de Horas'!$K$9:$K$39</f>
         <v>0</v>
       </c>
-      <c r="M35" s="63" t="str">
+      <c r="M35" s="43" t="str">
         <f>IF('Cálculo de Horas'!$B$9:$B$39&lt;&gt;"",
         IF(
 AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
@@ -5139,7 +5139,7 @@
          "")</f>
         <v/>
       </c>
-      <c r="N35" s="68">
+      <c r="N35" s="48">
         <f>IF(OR('Cálculo de Horas'!$J$9:$J$39&lt;&gt;0,'Cálculo de Horas'!$K$9:$K$39&lt;&gt;0),
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF('Cálculo de Horas'!$M$9:$M$39&gt;('Cálculo de Horas'!$K$9:$K$39+'Cálculo de Horas'!$J$9:$J$39),
@@ -5155,7 +5155,7 @@
 )))</f>
         <v>0</v>
       </c>
-      <c r="O35" s="68">
+      <c r="O35" s="48">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF(HOUR('Cálculo de Horas'!$N$9:$N$39)&gt;=VLOOKUP(LIMITE,Tabelas!$H$3:$J$4,Tabelas!$I$1,FALSE),
@@ -5165,47 +5165,47 @@
         'Cálculo de Horas'!$N$9:$N$39)+O34</f>
         <v>0</v>
       </c>
-      <c r="P35" s="68" t="str">
+      <c r="P35" s="48" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&lt;0,IF(OR('Cálculo de Horas'!$D$9:$D$39="",'Cálculo de Horas'!$I$9:$I$39=""),'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="Q35" s="68" t="str">
+      <c r="Q35" s="48" t="str">
         <f>IF('Cálculo de Horas'!$M$9:$M$39&lt;&gt;"",IF((N('Cálculo de Horas'!$M$9:$M$39)-ABS(N('Cálculo de Horas'!$N$9:$N$39)))=0,1,""),"")</f>
         <v/>
       </c>
-      <c r="R35" s="68" t="str">
+      <c r="R35" s="48" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="S35" s="68" t="str">
+      <c r="S35" s="48" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(OR(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Não",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="T35" s="69" t="str">
+      <c r="T35" s="49" t="str">
         <f>IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;""," - " &amp;VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")&amp;IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",'Cálculo de Horas'!$I$9:$I$39&lt;&gt;'Cálculo de Horas'!$D$9:$D$39)," - " &amp; VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B36" s="61" t="str">
+      <c r="B36" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C36" s="62" t="str">
+      <c r="C36" s="42" t="str">
         <f>TEXT('Cálculo de Horas'!$B$9:$B$39,"ddd")</f>
         <v/>
       </c>
-      <c r="D36" s="112"/>
-      <c r="E36" s="113"/>
-      <c r="F36" s="113"/>
-      <c r="G36" s="113"/>
-      <c r="H36" s="113"/>
-      <c r="I36" s="114"/>
-      <c r="J36" s="63">
+      <c r="D36" s="91"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$F$9:$F$39),ISNUMBER('Cálculo de Horas'!$E$9:$E$39)),
@@ -5217,7 +5217,7 @@
                     0)),0)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="63">
+      <c r="K36" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$H$9:$H$39),ISNUMBER('Cálculo de Horas'!$G$9:$G$39)),
@@ -5229,11 +5229,11 @@
        0)),0)</f>
         <v>0</v>
       </c>
-      <c r="L36" s="63">
+      <c r="L36" s="43">
         <f>'Cálculo de Horas'!$J$9:$J$39+'Cálculo de Horas'!$K$9:$K$39</f>
         <v>0</v>
       </c>
-      <c r="M36" s="63" t="str">
+      <c r="M36" s="43" t="str">
         <f>IF('Cálculo de Horas'!$B$9:$B$39&lt;&gt;"",
         IF(
 AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
@@ -5242,7 +5242,7 @@
          "")</f>
         <v/>
       </c>
-      <c r="N36" s="64">
+      <c r="N36" s="44">
         <f>IF(OR('Cálculo de Horas'!$J$9:$J$39&lt;&gt;0,'Cálculo de Horas'!$K$9:$K$39&lt;&gt;0),
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF('Cálculo de Horas'!$M$9:$M$39&gt;('Cálculo de Horas'!$K$9:$K$39+'Cálculo de Horas'!$J$9:$J$39),
@@ -5258,7 +5258,7 @@
 )))</f>
         <v>0</v>
       </c>
-      <c r="O36" s="64">
+      <c r="O36" s="44">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF(HOUR('Cálculo de Horas'!$N$9:$N$39)&gt;=VLOOKUP(LIMITE,Tabelas!$H$3:$J$4,Tabelas!$I$1,FALSE),
@@ -5268,47 +5268,47 @@
         'Cálculo de Horas'!$N$9:$N$39)+O35</f>
         <v>0</v>
       </c>
-      <c r="P36" s="64" t="str">
+      <c r="P36" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&lt;0,IF(OR('Cálculo de Horas'!$D$9:$D$39="",'Cálculo de Horas'!$I$9:$I$39=""),'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="Q36" s="64" t="str">
+      <c r="Q36" s="44" t="str">
         <f>IF('Cálculo de Horas'!$M$9:$M$39&lt;&gt;"",IF((N('Cálculo de Horas'!$M$9:$M$39)-ABS(N('Cálculo de Horas'!$N$9:$N$39)))=0,1,""),"")</f>
         <v/>
       </c>
-      <c r="R36" s="64" t="str">
+      <c r="R36" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="S36" s="64" t="str">
+      <c r="S36" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(OR(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Não",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="T36" s="65" t="str">
+      <c r="T36" s="45" t="str">
         <f>IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;""," - " &amp;VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")&amp;IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",'Cálculo de Horas'!$I$9:$I$39&lt;&gt;'Cálculo de Horas'!$D$9:$D$39)," - " &amp; VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B37" s="66" t="str">
+      <c r="B37" s="46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C37" s="67" t="str">
+      <c r="C37" s="47" t="str">
         <f>TEXT('Cálculo de Horas'!$B$9:$B$39,"ddd")</f>
         <v/>
       </c>
-      <c r="D37" s="112"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="115"/>
-      <c r="H37" s="115"/>
-      <c r="I37" s="114"/>
-      <c r="J37" s="63">
+      <c r="D37" s="91"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$F$9:$F$39),ISNUMBER('Cálculo de Horas'!$E$9:$E$39)),
@@ -5320,7 +5320,7 @@
                     0)),0)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="63">
+      <c r="K37" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$H$9:$H$39),ISNUMBER('Cálculo de Horas'!$G$9:$G$39)),
@@ -5332,11 +5332,11 @@
        0)),0)</f>
         <v>0</v>
       </c>
-      <c r="L37" s="63">
+      <c r="L37" s="43">
         <f>'Cálculo de Horas'!$J$9:$J$39+'Cálculo de Horas'!$K$9:$K$39</f>
         <v>0</v>
       </c>
-      <c r="M37" s="63" t="str">
+      <c r="M37" s="43" t="str">
         <f>IF('Cálculo de Horas'!$B$9:$B$39&lt;&gt;"",
         IF(
 AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
@@ -5345,7 +5345,7 @@
          "")</f>
         <v/>
       </c>
-      <c r="N37" s="68">
+      <c r="N37" s="48">
         <f>IF(OR('Cálculo de Horas'!$J$9:$J$39&lt;&gt;0,'Cálculo de Horas'!$K$9:$K$39&lt;&gt;0),
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF('Cálculo de Horas'!$M$9:$M$39&gt;('Cálculo de Horas'!$K$9:$K$39+'Cálculo de Horas'!$J$9:$J$39),
@@ -5361,7 +5361,7 @@
 )))</f>
         <v>0</v>
       </c>
-      <c r="O37" s="68">
+      <c r="O37" s="48">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF(HOUR('Cálculo de Horas'!$N$9:$N$39)&gt;=VLOOKUP(LIMITE,Tabelas!$H$3:$J$4,Tabelas!$I$1,FALSE),
@@ -5371,47 +5371,47 @@
         'Cálculo de Horas'!$N$9:$N$39)+O36</f>
         <v>0</v>
       </c>
-      <c r="P37" s="68" t="str">
+      <c r="P37" s="48" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&lt;0,IF(OR('Cálculo de Horas'!$D$9:$D$39="",'Cálculo de Horas'!$I$9:$I$39=""),'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="Q37" s="68" t="str">
+      <c r="Q37" s="48" t="str">
         <f>IF('Cálculo de Horas'!$M$9:$M$39&lt;&gt;"",IF((N('Cálculo de Horas'!$M$9:$M$39)-ABS(N('Cálculo de Horas'!$N$9:$N$39)))=0,1,""),"")</f>
         <v/>
       </c>
-      <c r="R37" s="68" t="str">
+      <c r="R37" s="48" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="S37" s="68" t="str">
+      <c r="S37" s="48" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(OR(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Não",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="T37" s="69" t="str">
+      <c r="T37" s="49" t="str">
         <f>IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;""," - " &amp;VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")&amp;IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",'Cálculo de Horas'!$I$9:$I$39&lt;&gt;'Cálculo de Horas'!$D$9:$D$39)," - " &amp; VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B38" s="61" t="str">
+      <c r="B38" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C38" s="62" t="str">
+      <c r="C38" s="42" t="str">
         <f>TEXT('Cálculo de Horas'!$B$9:$B$39,"ddd")</f>
         <v/>
       </c>
-      <c r="D38" s="112"/>
-      <c r="E38" s="113"/>
-      <c r="F38" s="113"/>
-      <c r="G38" s="113"/>
-      <c r="H38" s="113"/>
-      <c r="I38" s="114"/>
-      <c r="J38" s="63">
+      <c r="D38" s="91"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="92"/>
+      <c r="H38" s="92"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$F$9:$F$39),ISNUMBER('Cálculo de Horas'!$E$9:$E$39)),
@@ -5423,7 +5423,7 @@
                     0)),0)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="63">
+      <c r="K38" s="43">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$H$9:$H$39),ISNUMBER('Cálculo de Horas'!$G$9:$G$39)),
@@ -5435,11 +5435,11 @@
        0)),0)</f>
         <v>0</v>
       </c>
-      <c r="L38" s="63">
+      <c r="L38" s="43">
         <f>'Cálculo de Horas'!$J$9:$J$39+'Cálculo de Horas'!$K$9:$K$39</f>
         <v>0</v>
       </c>
-      <c r="M38" s="63" t="str">
+      <c r="M38" s="43" t="str">
         <f>IF('Cálculo de Horas'!$B$9:$B$39&lt;&gt;"",
         IF(
 AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
@@ -5448,7 +5448,7 @@
          "")</f>
         <v/>
       </c>
-      <c r="N38" s="64">
+      <c r="N38" s="44">
         <f>IF(OR('Cálculo de Horas'!$J$9:$J$39&lt;&gt;0,'Cálculo de Horas'!$K$9:$K$39&lt;&gt;0),
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF('Cálculo de Horas'!$M$9:$M$39&gt;('Cálculo de Horas'!$K$9:$K$39+'Cálculo de Horas'!$J$9:$J$39),
@@ -5464,7 +5464,7 @@
 )))</f>
         <v>0</v>
       </c>
-      <c r="O38" s="64">
+      <c r="O38" s="44">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF(HOUR('Cálculo de Horas'!$N$9:$N$39)&gt;=VLOOKUP(LIMITE,Tabelas!$H$3:$J$4,Tabelas!$I$1,FALSE),
@@ -5474,47 +5474,47 @@
         'Cálculo de Horas'!$N$9:$N$39)+O37</f>
         <v>0</v>
       </c>
-      <c r="P38" s="64" t="str">
+      <c r="P38" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&lt;0,IF(OR('Cálculo de Horas'!$D$9:$D$39="",'Cálculo de Horas'!$I$9:$I$39=""),'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="Q38" s="64" t="str">
+      <c r="Q38" s="44" t="str">
         <f>IF('Cálculo de Horas'!$M$9:$M$39&lt;&gt;"",IF((N('Cálculo de Horas'!$M$9:$M$39)-ABS(N('Cálculo de Horas'!$N$9:$N$39)))=0,1,""),"")</f>
         <v/>
       </c>
-      <c r="R38" s="64" t="str">
+      <c r="R38" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="S38" s="64" t="str">
+      <c r="S38" s="44" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(OR(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Não",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="T38" s="65" t="str">
+      <c r="T38" s="45" t="str">
         <f>IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;""," - " &amp;VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")&amp;IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",'Cálculo de Horas'!$I$9:$I$39&lt;&gt;'Cálculo de Horas'!$D$9:$D$39)," - " &amp; VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B39" s="70" t="str">
+      <c r="B39" s="50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C39" s="71" t="str">
+      <c r="C39" s="51" t="str">
         <f>TEXT('Cálculo de Horas'!$B$9:$B$39,"ddd")</f>
         <v/>
       </c>
-      <c r="D39" s="116"/>
-      <c r="E39" s="117"/>
-      <c r="F39" s="117"/>
-      <c r="G39" s="117"/>
-      <c r="H39" s="117"/>
+      <c r="D39" s="94"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="95"/>
       <c r="I39" s="118"/>
-      <c r="J39" s="72">
+      <c r="J39" s="52">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$F$9:$F$39),ISNUMBER('Cálculo de Horas'!$E$9:$E$39)),
@@ -5526,7 +5526,7 @@
                     0)),0)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="72">
+      <c r="K39" s="52">
         <f>IF($B$6&lt;&gt;"",IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(ISERROR(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)),FALSE,VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$D$1,FALSE)="Sim")),
         JORNADA/2,
         IF(AND(ISNUMBER('Cálculo de Horas'!$H$9:$H$39),ISNUMBER('Cálculo de Horas'!$G$9:$G$39)),
@@ -5538,11 +5538,11 @@
        0)),0)</f>
         <v>0</v>
       </c>
-      <c r="L39" s="72">
+      <c r="L39" s="52">
         <f>'Cálculo de Horas'!$J$9:$J$39+'Cálculo de Horas'!$K$9:$K$39</f>
         <v>0</v>
       </c>
-      <c r="M39" s="72" t="str">
+      <c r="M39" s="52" t="str">
         <f>IF('Cálculo de Horas'!$B$9:$B$39&lt;&gt;"",
         IF(
 AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
@@ -5551,7 +5551,7 @@
          "")</f>
         <v/>
       </c>
-      <c r="N39" s="73">
+      <c r="N39" s="53">
         <f>IF(OR('Cálculo de Horas'!$J$9:$J$39&lt;&gt;0,'Cálculo de Horas'!$K$9:$K$39&lt;&gt;0),
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF('Cálculo de Horas'!$M$9:$M$39&gt;('Cálculo de Horas'!$K$9:$K$39+'Cálculo de Horas'!$J$9:$J$39),
@@ -5567,7 +5567,7 @@
 )))</f>
         <v>0</v>
       </c>
-      <c r="O39" s="73">
+      <c r="O39" s="53">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
         IF(ISNUMBER('Cálculo de Horas'!$M$9:$M$39),
               IF(HOUR('Cálculo de Horas'!$N$9:$N$39)&gt;=VLOOKUP(LIMITE,Tabelas!$H$3:$J$4,Tabelas!$I$1,FALSE),
@@ -5577,27 +5577,27 @@
         'Cálculo de Horas'!$N$9:$N$39)+O38</f>
         <v>0</v>
       </c>
-      <c r="P39" s="73" t="str">
+      <c r="P39" s="53" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&lt;0,IF(OR('Cálculo de Horas'!$D$9:$D$39="",'Cálculo de Horas'!$I$9:$I$39=""),'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="Q39" s="73" t="str">
+      <c r="Q39" s="53" t="str">
         <f>IF('Cálculo de Horas'!$M$9:$M$39&lt;&gt;"",IF((N('Cálculo de Horas'!$M$9:$M$39)-ABS(N('Cálculo de Horas'!$N$9:$N$39)))=0,1,""),"")</f>
         <v/>
       </c>
-      <c r="R39" s="73" t="str">
+      <c r="R39" s="53" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(AND(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Sim",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",FALSE,TRUE),TRUE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="S39" s="73" t="str">
+      <c r="S39" s="53" t="str">
         <f>IF('Cálculo de Horas'!$N$9:$N$39&gt;0,
 IF(OR(VLOOKUP(TEXT('Cálculo de Horas'!$B$9:$B$39,"dddd"),Config!$B$11:$E$17,3,FALSE)="Não",IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE),IF('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",IF(VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$E$1,FALSE)="Sim",TRUE,FALSE),FALSE)),
 'Cálculo de Horas'!$N$9:$N$39,""),"")</f>
         <v/>
       </c>
-      <c r="T39" s="52" t="str">
+      <c r="T39" s="32" t="str">
         <f>IF('Cálculo de Horas'!$D$9:$D$39&lt;&gt;""," - " &amp;VLOOKUP('Cálculo de Horas'!$D$9:$D$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")&amp;IF(AND('Cálculo de Horas'!$I$9:$I$39&lt;&gt;"",'Cálculo de Horas'!$I$9:$I$39&lt;&gt;'Cálculo de Horas'!$D$9:$D$39)," - " &amp; VLOOKUP('Cálculo de Horas'!$I$9:$I$39,Tabelas!$A$3:$F$13,Tabelas!$F$1,FALSE),"")</f>
         <v/>
       </c>
@@ -5802,7 +5802,7 @@
     </row>
     <row r="6" spans="2:7" ht="21" x14ac:dyDescent="0.35">
       <c r="B6" s="25"/>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="31" t="s">
         <v>87</v>
       </c>
       <c r="D6" s="26"/>
